--- a/data/ngram_stats/upos_trigrams.xlsx
+++ b/data/ngram_stats/upos_trigrams.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2256"/>
+  <dimension ref="A1:E2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,7 @@
         <v>0.4284174836386574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1726331092131564</v>
+        <v>0.1817190623296384</v>
       </c>
     </row>
     <row r="3">
@@ -516,7 +516,7 @@
         <v>0.3679659368675585</v>
       </c>
       <c r="E4" t="n">
-        <v>0.227148827912048</v>
+        <v>0.218062874795566</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
         <v>1.235314216626804</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8449936398328185</v>
+        <v>0.8177357804833727</v>
       </c>
     </row>
     <row r="10">
@@ -651,7 +651,7 @@
         <v>0.2391778589639131</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1362892967472288</v>
+        <v>0.1453752498637107</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +696,7 @@
         <v>0.9645964202170999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.781391968017445</v>
+        <v>0.7995638742504089</v>
       </c>
     </row>
     <row r="17">
@@ -895,7 +895,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="30">
@@ -1203,7 +1203,7 @@
         <v>0.1261597497831629</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="50">
@@ -1436,7 +1436,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E64" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="65">
@@ -1481,7 +1481,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="68">
@@ -1748,7 +1748,7 @@
         <v>0.2549478276868084</v>
       </c>
       <c r="E84" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="85">
@@ -1898,7 +1898,7 @@
         <v>0.07096485925302914</v>
       </c>
       <c r="E94" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1928,7 +1928,7 @@
         <v>0.3180277025783899</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1544612029801926</v>
+        <v>0.1453752498637107</v>
       </c>
     </row>
     <row r="97">
@@ -2574,7 +2574,7 @@
         <v>0.0998764685783373</v>
       </c>
       <c r="E138" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="139">
@@ -3036,7 +3036,7 @@
         <v>0.1209030935421978</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.1272033436307469</v>
       </c>
     </row>
     <row r="169">
@@ -3186,7 +3186,7 @@
         <v>0.1419297185060583</v>
       </c>
       <c r="E178" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="179">
@@ -3506,7 +3506,7 @@
         <v>0.670223670723053</v>
       </c>
       <c r="E198" t="n">
-        <v>0.5269852807559513</v>
+        <v>0.5360712338724333</v>
       </c>
     </row>
     <row r="199">
@@ -3566,7 +3566,7 @@
         <v>0.08936315609640708</v>
       </c>
       <c r="E202" t="n">
-        <v>0.1362892967472288</v>
+        <v>0.1272033436307469</v>
       </c>
     </row>
     <row r="203">
@@ -3581,7 +3581,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E203" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="204">
@@ -4013,7 +4013,7 @@
         <v>0.07622151549399427</v>
       </c>
       <c r="E231" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="232">
@@ -4186,7 +4186,7 @@
         <v>0.5361789365784425</v>
       </c>
       <c r="E242" t="n">
-        <v>0.445211702707614</v>
+        <v>0.4542976558240959</v>
       </c>
     </row>
     <row r="243">
@@ -4231,7 +4231,7 @@
         <v>0.06570820301206402</v>
       </c>
       <c r="E245" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="246">
@@ -4276,7 +4276,7 @@
         <v>0.6307987489158147</v>
       </c>
       <c r="E248" t="n">
-        <v>0.445211702707614</v>
+        <v>0.4361257495911321</v>
       </c>
     </row>
     <row r="249">
@@ -4381,7 +4381,7 @@
         <v>0.5466922490603727</v>
       </c>
       <c r="E255" t="n">
-        <v>0.4179538433581683</v>
+        <v>0.4088678902416863</v>
       </c>
     </row>
     <row r="256">
@@ -4539,7 +4539,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E265" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="266">
@@ -4911,7 +4911,7 @@
         <v>0.6912502956869135</v>
       </c>
       <c r="E289" t="n">
-        <v>0.4270397964746502</v>
+        <v>0.4361257495911321</v>
       </c>
     </row>
     <row r="290">
@@ -4926,7 +4926,7 @@
         <v>0.1997529371566746</v>
       </c>
       <c r="E290" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="291">
@@ -5121,7 +5121,7 @@
         <v>0.1340447341446106</v>
       </c>
       <c r="E303" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.1544612029801926</v>
       </c>
     </row>
     <row r="304">
@@ -5215,7 +5215,7 @@
         <v>0.02102662496386049</v>
       </c>
       <c r="E309" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="310">
@@ -5279,7 +5279,7 @@
         <v>0.06570820301206402</v>
       </c>
       <c r="E313" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="314">
@@ -5354,7 +5354,7 @@
         <v>0.07096485925302914</v>
       </c>
       <c r="E318" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.1544612029801926</v>
       </c>
     </row>
     <row r="319">
@@ -5399,7 +5399,7 @@
         <v>0.05782321865061634</v>
       </c>
       <c r="E321" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.09085953116481918</v>
       </c>
     </row>
     <row r="322">
@@ -5516,7 +5516,7 @@
         <v>0.06570820301206402</v>
       </c>
       <c r="E328" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="329">
@@ -5561,7 +5561,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="332">
@@ -5651,7 +5651,7 @@
         <v>0.09199148421688963</v>
       </c>
       <c r="E337" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="338">
@@ -5666,7 +5666,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="339">
@@ -5681,7 +5681,7 @@
         <v>0.02891160932530817</v>
       </c>
       <c r="E339" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="340">
@@ -5835,7 +5835,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E349" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="350">
@@ -5989,7 +5989,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E359" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="360">
@@ -6038,7 +6038,7 @@
         <v>0.885746576602623</v>
       </c>
       <c r="E362" t="n">
-        <v>0.8540795929493004</v>
+        <v>0.8722514991822642</v>
       </c>
     </row>
     <row r="363">
@@ -6053,7 +6053,7 @@
         <v>0.6833653113254659</v>
       </c>
       <c r="E363" t="n">
-        <v>0.6723605306196619</v>
+        <v>0.6814464837361439</v>
       </c>
     </row>
     <row r="364">
@@ -6128,7 +6128,7 @@
         <v>1.166977685494257</v>
       </c>
       <c r="E368" t="n">
-        <v>0.6541886243866981</v>
+        <v>0.6451026712702163</v>
       </c>
     </row>
     <row r="369">
@@ -6188,7 +6188,7 @@
         <v>0.1839829684337793</v>
       </c>
       <c r="E372" t="n">
-        <v>0.4088678902416863</v>
+        <v>0.3906959840087225</v>
       </c>
     </row>
     <row r="373">
@@ -6620,7 +6620,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E400" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="401">
@@ -6684,7 +6684,7 @@
         <v>0.0473099061686861</v>
       </c>
       <c r="E404" t="n">
-        <v>0.3452662184263129</v>
+        <v>0.336180265309831</v>
       </c>
     </row>
     <row r="405">
@@ -6819,7 +6819,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E413" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="414">
@@ -6917,7 +6917,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E419" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="420">
@@ -7203,7 +7203,7 @@
         <v>0.1655846715904014</v>
       </c>
       <c r="E437" t="n">
-        <v>0.2544066872614937</v>
+        <v>0.2453207341450118</v>
       </c>
     </row>
     <row r="438">
@@ -7432,7 +7432,7 @@
         <v>0.05256656240965123</v>
       </c>
       <c r="E452" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="453">
@@ -7733,7 +7733,7 @@
         <v>0.01839829684337793</v>
       </c>
       <c r="E471" t="n">
-        <v>0.06360167181537343</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="472">
@@ -7868,7 +7868,7 @@
         <v>0.05519489053013378</v>
       </c>
       <c r="E480" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="481">
@@ -7981,7 +7981,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E487" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="488">
@@ -8240,7 +8240,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E504" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="505">
@@ -8443,7 +8443,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E517" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="518">
@@ -8721,7 +8721,7 @@
         <v>0.09724814045785476</v>
       </c>
       <c r="E535" t="n">
-        <v>0.1635471560966745</v>
+        <v>0.1544612029801926</v>
       </c>
     </row>
     <row r="536">
@@ -8781,7 +8781,7 @@
         <v>0.02102662496386049</v>
       </c>
       <c r="E539" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="540">
@@ -8796,7 +8796,7 @@
         <v>0.1419297185060583</v>
       </c>
       <c r="E540" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.1544612029801926</v>
       </c>
     </row>
     <row r="541">
@@ -8841,7 +8841,7 @@
         <v>0.1340447341446106</v>
       </c>
       <c r="E543" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="544">
@@ -9029,7 +9029,7 @@
         <v>0.1892396246747444</v>
       </c>
       <c r="E555" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="556">
@@ -9277,7 +9277,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E571" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="572">
@@ -9292,7 +9292,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E572" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="573">
@@ -9311,7 +9311,7 @@
         <v>0.05782321865061634</v>
       </c>
       <c r="E573" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="574">
@@ -9653,7 +9653,7 @@
         <v>0.03942492180723842</v>
       </c>
       <c r="E595" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="596">
@@ -9728,7 +9728,7 @@
         <v>0.06307987489158147</v>
       </c>
       <c r="E600" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="601">
@@ -9818,7 +9818,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E606" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="607">
@@ -9946,7 +9946,7 @@
         <v>0.02365495308434305</v>
       </c>
       <c r="E614" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="615">
@@ -10694,7 +10694,7 @@
         <v>0.02891160932530817</v>
       </c>
       <c r="E662" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="663">
@@ -11126,7 +11126,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E690" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="691">
@@ -11404,7 +11404,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E708" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="709">
@@ -11453,7 +11453,7 @@
         <v>0.08673482797592452</v>
       </c>
       <c r="E711" t="n">
-        <v>0.2362347810285299</v>
+        <v>0.2453207341450118</v>
       </c>
     </row>
     <row r="712">
@@ -11498,7 +11498,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E714" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.1272033436307469</v>
       </c>
     </row>
     <row r="715">
@@ -11603,7 +11603,7 @@
         <v>0.2418061870843956</v>
       </c>
       <c r="E721" t="n">
-        <v>0.227148827912048</v>
+        <v>0.2362347810285299</v>
       </c>
     </row>
     <row r="722">
@@ -11791,7 +11791,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E733" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="734">
@@ -11896,7 +11896,7 @@
         <v>0.07359318737351171</v>
       </c>
       <c r="E740" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="741">
@@ -12035,7 +12035,7 @@
         <v>0.02102662496386049</v>
       </c>
       <c r="E749" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="750">
@@ -12422,7 +12422,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E774" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="775">
@@ -12471,7 +12471,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E777" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="778">
@@ -12546,7 +12546,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E782" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="783">
@@ -12798,7 +12798,7 @@
         <v>0.149814702867506</v>
       </c>
       <c r="E798" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.1544612029801926</v>
       </c>
     </row>
     <row r="799">
@@ -13174,7 +13174,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E822" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="823">
@@ -13452,7 +13452,7 @@
         <v>0.4021342024338319</v>
       </c>
       <c r="E840" t="n">
-        <v>0.5542431401053971</v>
+        <v>0.5451571869889151</v>
       </c>
     </row>
     <row r="841">
@@ -13535,7 +13535,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E845" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="846">
@@ -13595,7 +13595,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E849" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="850">
@@ -13866,7 +13866,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E866" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="867">
@@ -13975,7 +13975,7 @@
         <v>0.07096485925302914</v>
       </c>
       <c r="E873" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.1453752498637107</v>
       </c>
     </row>
     <row r="874">
@@ -14110,7 +14110,7 @@
         <v>0.03153993744579073</v>
       </c>
       <c r="E882" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="883">
@@ -14367,7 +14367,7 @@
         <v>0.5046389991326518</v>
       </c>
       <c r="E897" t="n">
-        <v>0.3816100308922406</v>
+        <v>0.3906959840087225</v>
       </c>
     </row>
     <row r="898">
@@ -14517,7 +14517,7 @@
         <v>0.9199148421688964</v>
       </c>
       <c r="E907" t="n">
-        <v>0.6905324368526258</v>
+        <v>0.7087043430855896</v>
       </c>
     </row>
     <row r="908">
@@ -14547,7 +14547,7 @@
         <v>0.2391778589639131</v>
       </c>
       <c r="E909" t="n">
-        <v>0.2362347810285299</v>
+        <v>0.2453207341450118</v>
       </c>
     </row>
     <row r="910">
@@ -14581,7 +14581,7 @@
         <v>0.5466922490603727</v>
       </c>
       <c r="E911" t="n">
-        <v>0.3270943121933491</v>
+        <v>0.3543521715427948</v>
       </c>
     </row>
     <row r="912">
@@ -14596,7 +14596,7 @@
         <v>0.02365495308434305</v>
       </c>
       <c r="E912" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913">
@@ -14716,7 +14716,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E920" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="921">
@@ -14934,7 +14934,7 @@
         <v>0.131416406024128</v>
       </c>
       <c r="E934" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="935">
@@ -15024,7 +15024,7 @@
         <v>0.05256656240965123</v>
       </c>
       <c r="E940" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="941">
@@ -15039,7 +15039,7 @@
         <v>0.0341682655662733</v>
       </c>
       <c r="E941" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="942">
@@ -15362,7 +15362,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E962" t="n">
-        <v>0.06360167181537343</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="963">
@@ -15422,7 +15422,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E966" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="967">
@@ -15501,7 +15501,7 @@
         <v>0.6649670144820879</v>
       </c>
       <c r="E971" t="n">
-        <v>0.3543521715427948</v>
+        <v>0.3634381246592767</v>
       </c>
     </row>
     <row r="972">
@@ -15651,7 +15651,7 @@
         <v>0.1235314216626804</v>
       </c>
       <c r="E981" t="n">
-        <v>0.4270397964746502</v>
+        <v>0.4179538433581683</v>
       </c>
     </row>
     <row r="982">
@@ -15666,7 +15666,7 @@
         <v>1.159092701132809</v>
       </c>
       <c r="E982" t="n">
-        <v>0.5451571869889151</v>
+        <v>0.5360712338724333</v>
       </c>
     </row>
     <row r="983">
@@ -16177,7 +16177,7 @@
         <v>0.04993823428916865</v>
       </c>
       <c r="E1015" t="n">
-        <v>0.2634926403779757</v>
+        <v>0.2544066872614937</v>
       </c>
     </row>
     <row r="1016">
@@ -16297,7 +16297,7 @@
         <v>0.2680894682892213</v>
       </c>
       <c r="E1023" t="n">
-        <v>0.5905869525713248</v>
+        <v>0.5815009994548428</v>
       </c>
     </row>
     <row r="1024">
@@ -16327,7 +16327,7 @@
         <v>0.08147817173495939</v>
       </c>
       <c r="E1025" t="n">
-        <v>0.3452662184263129</v>
+        <v>0.336180265309831</v>
       </c>
     </row>
     <row r="1026">
@@ -16361,7 +16361,7 @@
         <v>3.10931216653087</v>
       </c>
       <c r="E1027" t="n">
-        <v>1.362892967472288</v>
+        <v>1.353807014355806</v>
       </c>
     </row>
     <row r="1028">
@@ -16376,7 +16376,7 @@
         <v>0.2181512340000526</v>
       </c>
       <c r="E1028" t="n">
-        <v>0.227148827912048</v>
+        <v>0.218062874795566</v>
       </c>
     </row>
     <row r="1029">
@@ -16421,7 +16421,7 @@
         <v>0.08936315609640708</v>
       </c>
       <c r="E1031" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1032">
@@ -16436,7 +16436,7 @@
         <v>0.3600809525061109</v>
       </c>
       <c r="E1032" t="n">
-        <v>0.5178993276394693</v>
+        <v>0.5269852807559513</v>
       </c>
     </row>
     <row r="1033">
@@ -16511,7 +16511,7 @@
         <v>0.0998764685783373</v>
       </c>
       <c r="E1037" t="n">
-        <v>0.1908050154461203</v>
+        <v>0.1817190623296384</v>
       </c>
     </row>
     <row r="1038">
@@ -16526,7 +16526,7 @@
         <v>0.0604515467710989</v>
       </c>
       <c r="E1038" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.09085953116481918</v>
       </c>
     </row>
     <row r="1039">
@@ -16571,7 +16571,7 @@
         <v>0.3521959681446631</v>
       </c>
       <c r="E1041" t="n">
-        <v>0.2907504997274214</v>
+        <v>0.2998364528439033</v>
       </c>
     </row>
     <row r="1042">
@@ -16601,7 +16601,7 @@
         <v>0.6360554051567798</v>
       </c>
       <c r="E1043" t="n">
-        <v>0.5815009994548428</v>
+        <v>0.5724150463383609</v>
       </c>
     </row>
     <row r="1044">
@@ -16774,7 +16774,7 @@
         <v>0.1471863747470234</v>
       </c>
       <c r="E1054" t="n">
-        <v>0.1362892967472288</v>
+        <v>0.1272033436307469</v>
       </c>
     </row>
     <row r="1055">
@@ -16804,7 +16804,7 @@
         <v>0.1051331248193025</v>
       </c>
       <c r="E1056" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1057">
@@ -16819,7 +16819,7 @@
         <v>0.1025047966988199</v>
       </c>
       <c r="E1057" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.1362892967472288</v>
       </c>
     </row>
     <row r="1058">
@@ -16864,7 +16864,7 @@
         <v>0.43104581175914</v>
       </c>
       <c r="E1060" t="n">
-        <v>0.5451571869889151</v>
+        <v>0.5088133745229875</v>
       </c>
     </row>
     <row r="1061">
@@ -16924,7 +16924,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1064" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1065">
@@ -17063,7 +17063,7 @@
         <v>0.08410649985544195</v>
       </c>
       <c r="E1073" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1074">
@@ -17078,7 +17078,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E1074" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1075">
@@ -17406,7 +17406,7 @@
         <v>0.1156464373012327</v>
       </c>
       <c r="E1094" t="n">
-        <v>0.2816645466109395</v>
+        <v>0.2907504997274214</v>
       </c>
     </row>
     <row r="1095">
@@ -17997,7 +17997,7 @@
         <v>0.1235314216626804</v>
       </c>
       <c r="E1131" t="n">
-        <v>0.2089769216790841</v>
+        <v>0.218062874795566</v>
       </c>
     </row>
     <row r="1132">
@@ -18256,7 +18256,7 @@
         <v>0.03153993744579073</v>
       </c>
       <c r="E1148" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1149">
@@ -18320,7 +18320,7 @@
         <v>0.01839829684337793</v>
       </c>
       <c r="E1152" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1153">
@@ -18459,7 +18459,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E1161" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162">
@@ -18617,7 +18617,7 @@
         <v>0.03942492180723842</v>
       </c>
       <c r="E1171" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1172">
@@ -18632,7 +18632,7 @@
         <v>0.02891160932530817</v>
       </c>
       <c r="E1172" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1173">
@@ -18677,7 +18677,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E1175" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176">
@@ -18752,7 +18752,7 @@
         <v>0.04205324992772098</v>
       </c>
       <c r="E1180" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1181">
@@ -18910,7 +18910,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1190" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1191">
@@ -19545,7 +19545,7 @@
         <v>0.1235314216626804</v>
       </c>
       <c r="E1231" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1232">
@@ -19797,7 +19797,7 @@
         <v>0.1918679527952269</v>
       </c>
       <c r="E1247" t="n">
-        <v>0.1544612029801926</v>
+        <v>0.1453752498637107</v>
       </c>
     </row>
     <row r="1248">
@@ -19996,7 +19996,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1260" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="1261">
@@ -20120,7 +20120,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E1268" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1269">
@@ -20135,7 +20135,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E1269" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1270">
@@ -20214,7 +20214,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E1274" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1275">
@@ -20462,7 +20462,7 @@
         <v>0.03679659368675586</v>
       </c>
       <c r="E1290" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.1181173905142649</v>
       </c>
     </row>
     <row r="1291">
@@ -20492,7 +20492,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E1292" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1293">
@@ -20894,7 +20894,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1318" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319">
@@ -20954,7 +20954,7 @@
         <v>0.1550713591084711</v>
       </c>
       <c r="E1322" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1323">
@@ -21123,7 +21123,7 @@
         <v>0.1130181091807501</v>
       </c>
       <c r="E1333" t="n">
-        <v>0.1635471560966745</v>
+        <v>0.1544612029801926</v>
       </c>
     </row>
     <row r="1334">
@@ -21574,7 +21574,7 @@
         <v>0.1182747654217152</v>
       </c>
       <c r="E1362" t="n">
-        <v>0.1544612029801926</v>
+        <v>0.1362892967472288</v>
       </c>
     </row>
     <row r="1363">
@@ -21724,7 +21724,7 @@
         <v>0.4205324992772098</v>
       </c>
       <c r="E1372" t="n">
-        <v>0.3270943121933491</v>
+        <v>0.3180083590768671</v>
       </c>
     </row>
     <row r="1373">
@@ -21939,7 +21939,7 @@
         <v>0.03679659368675586</v>
       </c>
       <c r="E1385" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1386">
@@ -21969,7 +21969,7 @@
         <v>0.08936315609640708</v>
       </c>
       <c r="E1387" t="n">
-        <v>0.2634926403779757</v>
+        <v>0.2544066872614937</v>
       </c>
     </row>
     <row r="1388">
@@ -22014,7 +22014,7 @@
         <v>0.04993823428916865</v>
       </c>
       <c r="E1390" t="n">
-        <v>0.4997274214065055</v>
+        <v>0.4906414682900236</v>
       </c>
     </row>
     <row r="1391">
@@ -22048,7 +22048,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E1392" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1393">
@@ -22484,7 +22484,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E1420" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.1272033436307469</v>
       </c>
     </row>
     <row r="1421">
@@ -22894,7 +22894,7 @@
         <v>0.03679659368675586</v>
       </c>
       <c r="E1446" t="n">
-        <v>0.109031437397783</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="1447">
@@ -22969,7 +22969,7 @@
         <v>0.02891160932530817</v>
       </c>
       <c r="E1451" t="n">
-        <v>0.109031437397783</v>
+        <v>0.1181173905142649</v>
       </c>
     </row>
     <row r="1452">
@@ -23029,7 +23029,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E1455" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1456">
@@ -23089,7 +23089,7 @@
         <v>0.07884984361447683</v>
       </c>
       <c r="E1459" t="n">
-        <v>0.1726331092131564</v>
+        <v>0.1817190623296384</v>
       </c>
     </row>
     <row r="1460">
@@ -23168,7 +23168,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E1464" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1465">
@@ -23202,7 +23202,7 @@
         <v>0.0946198123373722</v>
       </c>
       <c r="E1466" t="n">
-        <v>0.1998909685626022</v>
+        <v>0.1908050154461203</v>
       </c>
     </row>
     <row r="1467">
@@ -23217,7 +23217,7 @@
         <v>0.02365495308434305</v>
       </c>
       <c r="E1467" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="1468">
@@ -23262,7 +23262,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E1470" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1471">
@@ -23277,7 +23277,7 @@
         <v>0.07622151549399427</v>
       </c>
       <c r="E1471" t="n">
-        <v>0.1726331092131564</v>
+        <v>0.1635471560966745</v>
       </c>
     </row>
     <row r="1472">
@@ -23563,7 +23563,7 @@
         <v>0.0341682655662733</v>
       </c>
       <c r="E1489" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1490">
@@ -23608,7 +23608,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E1492" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1493">
@@ -23747,7 +23747,7 @@
         <v>0.1655846715904014</v>
       </c>
       <c r="E1501" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.09085953116481918</v>
       </c>
     </row>
     <row r="1502">
@@ -23792,7 +23792,7 @@
         <v>0.04993823428916865</v>
       </c>
       <c r="E1504" t="n">
-        <v>0.07268762493185535</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1505">
@@ -23856,7 +23856,7 @@
         <v>0.0473099061686861</v>
       </c>
       <c r="E1508" t="n">
-        <v>0.07268762493185535</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1509">
@@ -23871,7 +23871,7 @@
         <v>0.04468157804820354</v>
       </c>
       <c r="E1509" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1510">
@@ -24100,7 +24100,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E1524" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1525">
@@ -24284,7 +24284,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E1536" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1537">
@@ -24299,7 +24299,7 @@
         <v>0.08673482797592452</v>
       </c>
       <c r="E1537" t="n">
-        <v>0.2725785934944576</v>
+        <v>0.2816645466109395</v>
       </c>
     </row>
     <row r="1538">
@@ -24329,7 +24329,7 @@
         <v>0.0998764685783373</v>
       </c>
       <c r="E1539" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.09085953116481918</v>
       </c>
     </row>
     <row r="1540">
@@ -24344,7 +24344,7 @@
         <v>0.0604515467710989</v>
       </c>
       <c r="E1540" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="1541">
@@ -24389,7 +24389,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E1543" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1544">
@@ -24423,7 +24423,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1545" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1546">
@@ -24919,7 +24919,7 @@
         <v>0.0341682655662733</v>
       </c>
       <c r="E1577" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1578">
@@ -24934,7 +24934,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E1578" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1579">
@@ -24994,7 +24994,7 @@
         <v>0.03679659368675586</v>
       </c>
       <c r="E1582" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1583">
@@ -25103,7 +25103,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1589" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1590">
@@ -25148,7 +25148,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1592" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1593">
@@ -25775,7 +25775,7 @@
         <v>0.04993823428916865</v>
       </c>
       <c r="E1633" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="1634">
@@ -25820,7 +25820,7 @@
         <v>0.131416406024128</v>
       </c>
       <c r="E1636" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1637">
@@ -25835,7 +25835,7 @@
         <v>0.1156464373012327</v>
       </c>
       <c r="E1637" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="1638">
@@ -26068,7 +26068,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E1652" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1653">
@@ -26173,7 +26173,7 @@
         <v>0.01839829684337793</v>
       </c>
       <c r="E1659" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1660">
@@ -26252,7 +26252,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E1664" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1665">
@@ -26282,7 +26282,7 @@
         <v>0.1235314216626804</v>
       </c>
       <c r="E1666" t="n">
-        <v>0.109031437397783</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="1667">
@@ -26827,7 +26827,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E1701" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1702">
@@ -27015,7 +27015,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E1713" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1714">
@@ -27034,7 +27034,7 @@
         <v>0.05256656240965123</v>
       </c>
       <c r="E1714" t="n">
-        <v>0.07268762493185535</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1715">
@@ -27079,7 +27079,7 @@
         <v>0.02891160932530817</v>
       </c>
       <c r="E1717" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1718">
@@ -27199,7 +27199,7 @@
         <v>0.04993823428916865</v>
       </c>
       <c r="E1725" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="1726">
@@ -27282,7 +27282,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E1730" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1731">
@@ -27586,7 +27586,7 @@
         <v>0.04993823428916865</v>
       </c>
       <c r="E1750" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.09085953116481918</v>
       </c>
     </row>
     <row r="1751">
@@ -27917,7 +27917,7 @@
         <v>0.09199148421688963</v>
       </c>
       <c r="E1771" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.09085953116481918</v>
       </c>
     </row>
     <row r="1772">
@@ -28286,7 +28286,7 @@
         <v>0.0341682655662733</v>
       </c>
       <c r="E1794" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1795">
@@ -28320,7 +28320,7 @@
         <v>0.2391778589639131</v>
       </c>
       <c r="E1796" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="1797">
@@ -28365,7 +28365,7 @@
         <v>1.156464373012327</v>
       </c>
       <c r="E1799" t="n">
-        <v>0.999454842813011</v>
+        <v>1.008540795929493</v>
       </c>
     </row>
     <row r="1800">
@@ -28425,7 +28425,7 @@
         <v>0.07884984361447683</v>
       </c>
       <c r="E1803" t="n">
-        <v>0.3180083590768671</v>
+        <v>0.2998364528439033</v>
       </c>
     </row>
     <row r="1804">
@@ -28489,7 +28489,7 @@
         <v>0.06833653113254659</v>
       </c>
       <c r="E1807" t="n">
-        <v>0.07268762493185535</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="1808">
@@ -28564,7 +28564,7 @@
         <v>0.0341682655662733</v>
       </c>
       <c r="E1812" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1813">
@@ -28639,7 +28639,7 @@
         <v>0.0946198123373722</v>
       </c>
       <c r="E1817" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1818">
@@ -28718,7 +28718,7 @@
         <v>0.03153993744579073</v>
       </c>
       <c r="E1822" t="n">
-        <v>0.06360167181537343</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="1823">
@@ -28778,7 +28778,7 @@
         <v>0.06307987489158147</v>
       </c>
       <c r="E1826" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="1827">
@@ -29101,7 +29101,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E1847" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1848">
@@ -29135,7 +29135,7 @@
         <v>0.2286645464819828</v>
       </c>
       <c r="E1849" t="n">
-        <v>0.1908050154461203</v>
+        <v>0.1817190623296384</v>
       </c>
     </row>
     <row r="1850">
@@ -29210,7 +29210,7 @@
         <v>0.3311693431808027</v>
       </c>
       <c r="E1854" t="n">
-        <v>0.2816645466109395</v>
+        <v>0.2725785934944576</v>
       </c>
     </row>
     <row r="1855">
@@ -29285,7 +29285,7 @@
         <v>0.5677188740242332</v>
       </c>
       <c r="E1859" t="n">
-        <v>0.4361257495911321</v>
+        <v>0.4270397964746502</v>
       </c>
     </row>
     <row r="1860">
@@ -29334,7 +29334,7 @@
         <v>0.0473099061686861</v>
       </c>
       <c r="E1862" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.1362892967472288</v>
       </c>
     </row>
     <row r="1863">
@@ -29488,7 +29488,7 @@
         <v>0.05519489053013378</v>
       </c>
       <c r="E1872" t="n">
-        <v>0.07268762493185535</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="1873">
@@ -29642,7 +29642,7 @@
         <v>0.0998764685783373</v>
       </c>
       <c r="E1882" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.1181173905142649</v>
       </c>
     </row>
     <row r="1883">
@@ -29687,7 +29687,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E1885" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="1886">
@@ -29732,7 +29732,7 @@
         <v>0.05782321865061634</v>
       </c>
       <c r="E1888" t="n">
-        <v>0.06360167181537343</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1889">
@@ -29916,7 +29916,7 @@
         <v>0.05256656240965123</v>
       </c>
       <c r="E1900" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1901">
@@ -29965,7 +29965,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E1903" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="1904">
@@ -30160,7 +30160,7 @@
         <v>0.1655846715904014</v>
       </c>
       <c r="E1916" t="n">
-        <v>0.2634926403779757</v>
+        <v>0.2544066872614937</v>
       </c>
     </row>
     <row r="1917">
@@ -30487,7 +30487,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E1937" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1938">
@@ -31119,7 +31119,7 @@
         <v>0.1051331248193025</v>
       </c>
       <c r="E1977" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="1978">
@@ -31513,7 +31513,7 @@
       <c r="B2000" s="1" t="n"/>
       <c r="C2000" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2000" t="n">
@@ -31525,14 +31525,10 @@
     </row>
     <row r="2001">
       <c r="A2001" s="1" t="n"/>
-      <c r="B2001" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2001" s="1" t="n"/>
       <c r="C2001" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2001" t="n">
@@ -31544,10 +31540,14 @@
     </row>
     <row r="2002">
       <c r="A2002" s="1" t="n"/>
-      <c r="B2002" s="1" t="n"/>
+      <c r="B2002" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2002" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2002" t="n">
@@ -31562,7 +31562,7 @@
       <c r="B2003" s="1" t="n"/>
       <c r="C2003" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2003" t="n">
@@ -31577,7 +31577,7 @@
       <c r="B2004" s="1" t="n"/>
       <c r="C2004" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2004" t="n">
@@ -31592,7 +31592,7 @@
       <c r="B2005" s="1" t="n"/>
       <c r="C2005" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2005" t="n">
@@ -31604,14 +31604,10 @@
     </row>
     <row r="2006">
       <c r="A2006" s="1" t="n"/>
-      <c r="B2006" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="B2006" s="1" t="n"/>
       <c r="C2006" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2006" t="n">
@@ -31623,10 +31619,14 @@
     </row>
     <row r="2007">
       <c r="A2007" s="1" t="n"/>
-      <c r="B2007" s="1" t="n"/>
+      <c r="B2007" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2007" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2007" t="n">
@@ -31638,90 +31638,86 @@
     </row>
     <row r="2008">
       <c r="A2008" s="1" t="n"/>
-      <c r="B2008" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2008" s="1" t="n"/>
       <c r="C2008" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2008" t="n">
         <v>0</v>
       </c>
       <c r="E2008" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2009">
       <c r="A2009" s="1" t="n"/>
-      <c r="B2009" s="1" t="n"/>
+      <c r="B2009" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
       <c r="C2009" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2009" t="n">
         <v>0</v>
       </c>
       <c r="E2009" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" s="1" t="n"/>
-      <c r="B2010" s="1" t="inlineStr">
+      <c r="B2010" s="1" t="n"/>
+      <c r="C2010" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="D2010" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" s="1" t="n"/>
+      <c r="B2011" s="1" t="inlineStr">
         <is>
           <t>VERB</t>
         </is>
       </c>
-      <c r="C2010" s="1" t="inlineStr">
+      <c r="C2011" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D2010" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2010" t="n">
+      <c r="D2011" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2011" t="n">
         <v>0.01817190623296384</v>
       </c>
     </row>
-    <row r="2011">
-      <c r="A2011" s="1" t="inlineStr">
+    <row r="2012">
+      <c r="A2012" s="1" t="inlineStr">
         <is>
           <t>ADP</t>
         </is>
       </c>
-      <c r="B2011" s="1" t="inlineStr">
+      <c r="B2012" s="1" t="inlineStr">
         <is>
           <t>&lt;EOS&gt;</t>
         </is>
       </c>
-      <c r="C2011" s="1" t="inlineStr">
+      <c r="C2012" s="1" t="inlineStr">
         <is>
           <t>&lt;EOS&gt;</t>
-        </is>
-      </c>
-      <c r="D2011" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2011" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2012">
-      <c r="A2012" s="1" t="n"/>
-      <c r="B2012" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
-      <c r="C2012" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
         </is>
       </c>
       <c r="D2012" t="n">
@@ -31735,46 +31731,46 @@
       <c r="A2013" s="1" t="n"/>
       <c r="B2013" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="C2013" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2013" t="n">
         <v>0</v>
       </c>
       <c r="E2013" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2014">
       <c r="A2014" s="1" t="n"/>
-      <c r="B2014" s="1" t="n"/>
+      <c r="B2014" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
       <c r="C2014" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2014" t="n">
         <v>0</v>
       </c>
       <c r="E2014" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" s="1" t="n"/>
-      <c r="B2015" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
+      <c r="B2015" s="1" t="n"/>
       <c r="C2015" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2015" t="n">
@@ -31786,10 +31782,14 @@
     </row>
     <row r="2016">
       <c r="A2016" s="1" t="n"/>
-      <c r="B2016" s="1" t="n"/>
+      <c r="B2016" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
       <c r="C2016" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2016" t="n">
@@ -31801,14 +31801,10 @@
     </row>
     <row r="2017">
       <c r="A2017" s="1" t="n"/>
-      <c r="B2017" s="1" t="inlineStr">
+      <c r="B2017" s="1" t="n"/>
+      <c r="C2017" s="1" t="inlineStr">
         <is>
           <t>CCONJ</t>
-        </is>
-      </c>
-      <c r="C2017" s="1" t="inlineStr">
-        <is>
-          <t>VERB</t>
         </is>
       </c>
       <c r="D2017" t="n">
@@ -31822,12 +31818,12 @@
       <c r="A2018" s="1" t="n"/>
       <c r="B2018" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2018" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2018" t="n">
@@ -31839,63 +31835,67 @@
     </row>
     <row r="2019">
       <c r="A2019" s="1" t="n"/>
-      <c r="B2019" s="1" t="n"/>
+      <c r="B2019" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="C2019" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2019" t="n">
         <v>0</v>
       </c>
       <c r="E2019" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2020">
       <c r="A2020" s="1" t="n"/>
-      <c r="B2020" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
+      <c r="B2020" s="1" t="n"/>
       <c r="C2020" s="1" t="inlineStr">
         <is>
-          <t>&lt;EOS&gt;</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2020" t="n">
         <v>0</v>
       </c>
       <c r="E2020" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" s="1" t="n"/>
       <c r="B2021" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2021" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>&lt;EOS&gt;</t>
         </is>
       </c>
       <c r="D2021" t="n">
         <v>0</v>
       </c>
       <c r="E2021" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" s="1" t="n"/>
-      <c r="B2022" s="1" t="n"/>
+      <c r="B2022" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2022" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2022" t="n">
@@ -31910,41 +31910,41 @@
       <c r="B2023" s="1" t="n"/>
       <c r="C2023" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2023" t="n">
         <v>0</v>
       </c>
       <c r="E2023" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2024">
       <c r="A2024" s="1" t="n"/>
-      <c r="B2024" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2024" s="1" t="n"/>
       <c r="C2024" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2024" t="n">
         <v>0</v>
       </c>
       <c r="E2024" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" s="1" t="n"/>
-      <c r="B2025" s="1" t="n"/>
+      <c r="B2025" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2025" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2025" t="n">
@@ -31956,33 +31956,29 @@
     </row>
     <row r="2026">
       <c r="A2026" s="1" t="n"/>
-      <c r="B2026" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2026" s="1" t="n"/>
       <c r="C2026" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2026" t="n">
         <v>0</v>
       </c>
       <c r="E2026" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2027">
       <c r="A2027" s="1" t="n"/>
       <c r="B2027" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="C2027" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2027" t="n">
@@ -31996,12 +31992,12 @@
       <c r="A2028" s="1" t="n"/>
       <c r="B2028" s="1" t="inlineStr">
         <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="C2028" s="1" t="inlineStr">
+        <is>
           <t>VERB</t>
-        </is>
-      </c>
-      <c r="C2028" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
         </is>
       </c>
       <c r="D2028" t="n">
@@ -32013,10 +32009,14 @@
     </row>
     <row r="2029">
       <c r="A2029" s="1" t="n"/>
-      <c r="B2029" s="1" t="n"/>
+      <c r="B2029" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
       <c r="C2029" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2029" t="n">
@@ -32190,7 +32190,7 @@
         <v>0</v>
       </c>
       <c r="E2038" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2039">
@@ -32214,14 +32214,10 @@
     </row>
     <row r="2040">
       <c r="A2040" s="1" t="n"/>
-      <c r="B2040" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2040" s="1" t="n"/>
       <c r="C2040" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2040" t="n">
@@ -32235,54 +32231,54 @@
       <c r="A2041" s="1" t="n"/>
       <c r="B2041" s="1" t="inlineStr">
         <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="C2041" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="D2041" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" s="1" t="n"/>
+      <c r="B2042" s="1" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C2041" s="1" t="inlineStr">
+      <c r="C2042" s="1" t="inlineStr">
         <is>
           <t>PUNCT</t>
         </is>
       </c>
-      <c r="D2041" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2041" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2042">
-      <c r="A2042" s="1" t="inlineStr">
+      <c r="D2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="1" t="inlineStr">
         <is>
           <t>AUX</t>
         </is>
       </c>
-      <c r="B2042" s="1" t="inlineStr">
+      <c r="B2043" s="1" t="inlineStr">
         <is>
           <t>ADJ</t>
         </is>
       </c>
-      <c r="C2042" s="1" t="inlineStr">
+      <c r="C2043" s="1" t="inlineStr">
         <is>
           <t>DET</t>
-        </is>
-      </c>
-      <c r="D2042" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2042" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" s="1" t="n"/>
-      <c r="B2043" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
-      <c r="C2043" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
         </is>
       </c>
       <c r="D2043" t="n">
@@ -32294,10 +32290,14 @@
     </row>
     <row r="2044">
       <c r="A2044" s="1" t="n"/>
-      <c r="B2044" s="1" t="n"/>
+      <c r="B2044" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
       <c r="C2044" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2044" t="n">
@@ -32309,48 +32309,48 @@
     </row>
     <row r="2045">
       <c r="A2045" s="1" t="n"/>
-      <c r="B2045" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
+      <c r="B2045" s="1" t="n"/>
       <c r="C2045" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2045" t="n">
         <v>0</v>
       </c>
       <c r="E2045" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2046">
       <c r="A2046" s="1" t="n"/>
       <c r="B2046" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2046" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2046" t="n">
         <v>0</v>
       </c>
       <c r="E2046" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" s="1" t="n"/>
-      <c r="B2047" s="1" t="n"/>
+      <c r="B2047" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2047" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2047" t="n">
@@ -32365,41 +32365,41 @@
       <c r="B2048" s="1" t="n"/>
       <c r="C2048" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2048" t="n">
         <v>0</v>
       </c>
       <c r="E2048" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2049">
       <c r="A2049" s="1" t="n"/>
-      <c r="B2049" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2049" s="1" t="n"/>
       <c r="C2049" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2049" t="n">
         <v>0</v>
       </c>
       <c r="E2049" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" s="1" t="n"/>
-      <c r="B2050" s="1" t="n"/>
+      <c r="B2050" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2050" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2050" t="n">
@@ -32414,14 +32414,14 @@
       <c r="B2051" s="1" t="n"/>
       <c r="C2051" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2051" t="n">
         <v>0</v>
       </c>
       <c r="E2051" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2052">
@@ -32429,26 +32429,22 @@
       <c r="B2052" s="1" t="n"/>
       <c r="C2052" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2052" t="n">
         <v>0</v>
       </c>
       <c r="E2052" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2053">
       <c r="A2053" s="1" t="n"/>
-      <c r="B2053" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2053" s="1" t="n"/>
       <c r="C2053" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2053" t="n">
@@ -32462,27 +32458,31 @@
       <c r="A2054" s="1" t="n"/>
       <c r="B2054" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="C2054" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2054" t="n">
         <v>0</v>
       </c>
       <c r="E2054" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2055">
       <c r="A2055" s="1" t="n"/>
-      <c r="B2055" s="1" t="n"/>
+      <c r="B2055" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
       <c r="C2055" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2055" t="n">
@@ -32641,7 +32641,7 @@
       </c>
       <c r="C2064" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2064" t="n">
@@ -32653,10 +32653,14 @@
     </row>
     <row r="2065">
       <c r="A2065" s="1" t="n"/>
-      <c r="B2065" s="1" t="n"/>
+      <c r="B2065" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="C2065" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2065" t="n">
@@ -32668,14 +32672,10 @@
     </row>
     <row r="2066">
       <c r="A2066" s="1" t="n"/>
-      <c r="B2066" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2066" s="1" t="n"/>
       <c r="C2066" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2066" t="n">
@@ -32690,7 +32690,7 @@
       <c r="B2067" s="1" t="n"/>
       <c r="C2067" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2067" t="n">
@@ -32702,10 +32702,14 @@
     </row>
     <row r="2068">
       <c r="A2068" s="1" t="n"/>
-      <c r="B2068" s="1" t="n"/>
+      <c r="B2068" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2068" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2068" t="n">
@@ -32717,14 +32721,10 @@
     </row>
     <row r="2069">
       <c r="A2069" s="1" t="n"/>
-      <c r="B2069" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="B2069" s="1" t="n"/>
       <c r="C2069" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2069" t="n">
@@ -32736,10 +32736,14 @@
     </row>
     <row r="2070">
       <c r="A2070" s="1" t="n"/>
-      <c r="B2070" s="1" t="n"/>
+      <c r="B2070" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="C2070" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2070" t="n">
@@ -32751,14 +32755,10 @@
     </row>
     <row r="2071">
       <c r="A2071" s="1" t="n"/>
-      <c r="B2071" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
+      <c r="B2071" s="1" t="n"/>
       <c r="C2071" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2071" t="n">
@@ -32773,7 +32773,7 @@
       <c r="B2072" s="1" t="n"/>
       <c r="C2072" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2072" t="n">
@@ -32785,10 +32785,14 @@
     </row>
     <row r="2073">
       <c r="A2073" s="1" t="n"/>
-      <c r="B2073" s="1" t="n"/>
+      <c r="B2073" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2073" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2073" t="n">
@@ -32800,14 +32804,10 @@
     </row>
     <row r="2074">
       <c r="A2074" s="1" t="n"/>
-      <c r="B2074" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2074" s="1" t="n"/>
       <c r="C2074" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2074" t="n">
@@ -32819,10 +32819,14 @@
     </row>
     <row r="2075">
       <c r="A2075" s="1" t="n"/>
-      <c r="B2075" s="1" t="n"/>
+      <c r="B2075" s="1" t="inlineStr">
+        <is>
+          <t>PUNCT</t>
+        </is>
+      </c>
       <c r="C2075" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2075" t="n">
@@ -32836,12 +32840,12 @@
       <c r="A2076" s="1" t="n"/>
       <c r="B2076" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2076" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2076" t="n">
@@ -32853,14 +32857,10 @@
     </row>
     <row r="2077">
       <c r="A2077" s="1" t="n"/>
-      <c r="B2077" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2077" s="1" t="n"/>
       <c r="C2077" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2077" t="n">
@@ -32875,7 +32875,7 @@
       <c r="B2078" s="1" t="n"/>
       <c r="C2078" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2078" t="n">
@@ -32890,7 +32890,7 @@
       <c r="B2079" s="1" t="n"/>
       <c r="C2079" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2079" t="n">
@@ -32902,47 +32902,51 @@
     </row>
     <row r="2080">
       <c r="A2080" s="1" t="n"/>
-      <c r="B2080" s="1" t="n"/>
+      <c r="B2080" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
       <c r="C2080" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2080" t="n">
         <v>0</v>
       </c>
       <c r="E2080" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2081">
-      <c r="A2081" s="1" t="n"/>
+      <c r="A2081" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="B2081" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="C2081" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2081" t="n">
         <v>0</v>
       </c>
       <c r="E2081" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2082">
-      <c r="A2082" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="A2082" s="1" t="n"/>
       <c r="B2082" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C2082" s="1" t="inlineStr">
@@ -32954,38 +32958,38 @@
         <v>0</v>
       </c>
       <c r="E2082" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2083">
       <c r="A2083" s="1" t="n"/>
       <c r="B2083" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="C2083" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2083" t="n">
         <v>0</v>
       </c>
       <c r="E2083" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2084">
       <c r="A2084" s="1" t="n"/>
       <c r="B2084" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C2084" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2084" t="n">
@@ -32997,14 +33001,10 @@
     </row>
     <row r="2085">
       <c r="A2085" s="1" t="n"/>
-      <c r="B2085" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
-        </is>
-      </c>
+      <c r="B2085" s="1" t="n"/>
       <c r="C2085" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2085" t="n">
@@ -33019,7 +33019,7 @@
       <c r="B2086" s="1" t="n"/>
       <c r="C2086" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2086" t="n">
@@ -33031,36 +33031,36 @@
     </row>
     <row r="2087">
       <c r="A2087" s="1" t="n"/>
-      <c r="B2087" s="1" t="n"/>
+      <c r="B2087" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2087" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2087" t="n">
         <v>0</v>
       </c>
       <c r="E2087" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2088">
       <c r="A2088" s="1" t="n"/>
-      <c r="B2088" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
+      <c r="B2088" s="1" t="n"/>
       <c r="C2088" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2088" t="n">
         <v>0</v>
       </c>
       <c r="E2088" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2089">
@@ -33068,7 +33068,7 @@
       <c r="B2089" s="1" t="n"/>
       <c r="C2089" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2089" t="n">
@@ -33080,10 +33080,14 @@
     </row>
     <row r="2090">
       <c r="A2090" s="1" t="n"/>
-      <c r="B2090" s="1" t="n"/>
+      <c r="B2090" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="C2090" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2090" t="n">
@@ -33095,14 +33099,10 @@
     </row>
     <row r="2091">
       <c r="A2091" s="1" t="n"/>
-      <c r="B2091" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2091" s="1" t="n"/>
       <c r="C2091" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2091" t="n">
@@ -33117,7 +33117,7 @@
       <c r="B2092" s="1" t="n"/>
       <c r="C2092" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2092" t="n">
@@ -33129,10 +33129,14 @@
     </row>
     <row r="2093">
       <c r="A2093" s="1" t="n"/>
-      <c r="B2093" s="1" t="n"/>
+      <c r="B2093" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2093" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2093" t="n">
@@ -33146,12 +33150,12 @@
       <c r="A2094" s="1" t="n"/>
       <c r="B2094" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="C2094" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2094" t="n">
@@ -33163,14 +33167,10 @@
     </row>
     <row r="2095">
       <c r="A2095" s="1" t="n"/>
-      <c r="B2095" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
+      <c r="B2095" s="1" t="n"/>
       <c r="C2095" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2095" t="n">
@@ -33182,10 +33182,14 @@
     </row>
     <row r="2096">
       <c r="A2096" s="1" t="n"/>
-      <c r="B2096" s="1" t="n"/>
+      <c r="B2096" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2096" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2096" t="n">
@@ -33197,21 +33201,17 @@
     </row>
     <row r="2097">
       <c r="A2097" s="1" t="n"/>
-      <c r="B2097" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2097" s="1" t="n"/>
       <c r="C2097" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2097" t="n">
         <v>0</v>
       </c>
       <c r="E2097" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2098">
@@ -33219,14 +33219,14 @@
       <c r="B2098" s="1" t="n"/>
       <c r="C2098" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2098" t="n">
         <v>0</v>
       </c>
       <c r="E2098" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2099">
@@ -33234,14 +33234,14 @@
       <c r="B2099" s="1" t="n"/>
       <c r="C2099" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2099" t="n">
         <v>0</v>
       </c>
       <c r="E2099" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2100">
@@ -33249,14 +33249,14 @@
       <c r="B2100" s="1" t="n"/>
       <c r="C2100" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2100" t="n">
         <v>0</v>
       </c>
       <c r="E2100" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2101">
@@ -33264,14 +33264,14 @@
       <c r="B2101" s="1" t="n"/>
       <c r="C2101" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2101" t="n">
         <v>0</v>
       </c>
       <c r="E2101" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2102">
@@ -33279,14 +33279,14 @@
       <c r="B2102" s="1" t="n"/>
       <c r="C2102" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2102" t="n">
         <v>0</v>
       </c>
       <c r="E2102" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="2103">
@@ -33294,14 +33294,14 @@
       <c r="B2103" s="1" t="n"/>
       <c r="C2103" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2103" t="n">
         <v>0</v>
       </c>
       <c r="E2103" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2104">
@@ -33309,7 +33309,7 @@
       <c r="B2104" s="1" t="n"/>
       <c r="C2104" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2104" t="n">
@@ -33321,26 +33321,26 @@
     </row>
     <row r="2105">
       <c r="A2105" s="1" t="n"/>
-      <c r="B2105" s="1" t="n"/>
+      <c r="B2105" s="1" t="inlineStr">
+        <is>
+          <t>PUNCT</t>
+        </is>
+      </c>
       <c r="C2105" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2105" t="n">
         <v>0</v>
       </c>
       <c r="E2105" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2106">
       <c r="A2106" s="1" t="n"/>
-      <c r="B2106" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2106" s="1" t="n"/>
       <c r="C2106" s="1" t="inlineStr">
         <is>
           <t>PROPN</t>
@@ -33449,7 +33449,7 @@
       <c r="B2112" s="1" t="n"/>
       <c r="C2112" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2112" t="n">
@@ -33461,10 +33461,14 @@
     </row>
     <row r="2113">
       <c r="A2113" s="1" t="n"/>
-      <c r="B2113" s="1" t="n"/>
+      <c r="B2113" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2113" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2113" t="n">
@@ -33476,14 +33480,10 @@
     </row>
     <row r="2114">
       <c r="A2114" s="1" t="n"/>
-      <c r="B2114" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
+      <c r="B2114" s="1" t="n"/>
       <c r="C2114" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2114" t="n">
@@ -33495,157 +33495,157 @@
     </row>
     <row r="2115">
       <c r="A2115" s="1" t="n"/>
-      <c r="B2115" s="1" t="n"/>
+      <c r="B2115" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="C2115" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2115" t="n">
         <v>0</v>
       </c>
       <c r="E2115" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2116">
       <c r="A2116" s="1" t="n"/>
-      <c r="B2116" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2116" s="1" t="n"/>
       <c r="C2116" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2116" t="n">
         <v>0</v>
       </c>
       <c r="E2116" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.1453752498637107</v>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" s="1" t="n"/>
-      <c r="B2117" s="1" t="n"/>
+      <c r="B2117" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2117" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2117" t="n">
         <v>0</v>
       </c>
       <c r="E2117" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2118">
       <c r="A2118" s="1" t="n"/>
-      <c r="B2118" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2118" s="1" t="n"/>
       <c r="C2118" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2118" t="n">
         <v>0</v>
       </c>
       <c r="E2118" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2119">
       <c r="A2119" s="1" t="n"/>
-      <c r="B2119" s="1" t="n"/>
+      <c r="B2119" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="C2119" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2119" t="n">
         <v>0</v>
       </c>
       <c r="E2119" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2120">
       <c r="A2120" s="1" t="n"/>
-      <c r="B2120" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
+      <c r="B2120" s="1" t="n"/>
       <c r="C2120" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2120" t="n">
         <v>0</v>
       </c>
       <c r="E2120" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" s="1" t="n"/>
-      <c r="B2121" s="1" t="n"/>
+      <c r="B2121" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2121" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2121" t="n">
         <v>0</v>
       </c>
       <c r="E2121" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2122">
       <c r="A2122" s="1" t="n"/>
       <c r="B2122" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2122" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2122" t="n">
         <v>0</v>
       </c>
       <c r="E2122" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2123">
       <c r="A2123" s="1" t="n"/>
-      <c r="B2123" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2123" s="1" t="n"/>
       <c r="C2123" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2123" t="n">
         <v>0</v>
       </c>
       <c r="E2123" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="2124">
@@ -33653,41 +33653,49 @@
       <c r="B2124" s="1" t="n"/>
       <c r="C2124" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2124" t="n">
         <v>0</v>
       </c>
       <c r="E2124" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" s="1" t="n"/>
-      <c r="B2125" s="1" t="n"/>
+      <c r="B2125" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
       <c r="C2125" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2125" t="n">
         <v>0</v>
       </c>
       <c r="E2125" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2126">
-      <c r="A2126" s="1" t="n"/>
+      <c r="A2126" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="B2126" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="C2126" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2126" t="n">
@@ -33698,19 +33706,11 @@
       </c>
     </row>
     <row r="2127">
-      <c r="A2127" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
-      <c r="B2127" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
+      <c r="A2127" s="1" t="n"/>
+      <c r="B2127" s="1" t="n"/>
       <c r="C2127" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2127" t="n">
@@ -33722,63 +33722,67 @@
     </row>
     <row r="2128">
       <c r="A2128" s="1" t="n"/>
-      <c r="B2128" s="1" t="n"/>
+      <c r="B2128" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
       <c r="C2128" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2128" t="n">
         <v>0</v>
       </c>
       <c r="E2128" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" s="1" t="n"/>
-      <c r="B2129" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="B2129" s="1" t="n"/>
       <c r="C2129" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2129" t="n">
         <v>0</v>
       </c>
       <c r="E2129" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2130">
       <c r="A2130" s="1" t="n"/>
-      <c r="B2130" s="1" t="n"/>
+      <c r="B2130" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
       <c r="C2130" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2130" t="n">
         <v>0</v>
       </c>
       <c r="E2130" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2131">
       <c r="A2131" s="1" t="n"/>
       <c r="B2131" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C2131" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2131" t="n">
@@ -33792,76 +33796,72 @@
       <c r="A2132" s="1" t="n"/>
       <c r="B2132" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2132" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2132" t="n">
         <v>0</v>
       </c>
       <c r="E2132" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" s="1" t="n"/>
       <c r="B2133" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2133" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2133" t="n">
         <v>0</v>
       </c>
       <c r="E2133" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" s="1" t="n"/>
       <c r="B2134" s="1" t="inlineStr">
         <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="C2134" s="1" t="inlineStr">
+        <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="C2134" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
       <c r="D2134" t="n">
         <v>0</v>
       </c>
       <c r="E2134" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" s="1" t="n"/>
-      <c r="B2135" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
+      <c r="B2135" s="1" t="n"/>
       <c r="C2135" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2135" t="n">
         <v>0</v>
       </c>
       <c r="E2135" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2136">
@@ -33869,7 +33869,7 @@
       <c r="B2136" s="1" t="n"/>
       <c r="C2136" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2136" t="n">
@@ -33881,10 +33881,14 @@
     </row>
     <row r="2137">
       <c r="A2137" s="1" t="n"/>
-      <c r="B2137" s="1" t="n"/>
+      <c r="B2137" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2137" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2137" t="n">
@@ -33898,7 +33902,7 @@
       <c r="A2138" s="1" t="n"/>
       <c r="B2138" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2138" s="1" t="inlineStr">
@@ -33917,12 +33921,12 @@
       <c r="A2139" s="1" t="n"/>
       <c r="B2139" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="C2139" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2139" t="n">
@@ -33934,14 +33938,10 @@
     </row>
     <row r="2140">
       <c r="A2140" s="1" t="n"/>
-      <c r="B2140" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2140" s="1" t="n"/>
       <c r="C2140" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2140" t="n">
@@ -33953,48 +33953,56 @@
     </row>
     <row r="2141">
       <c r="A2141" s="1" t="n"/>
-      <c r="B2141" s="1" t="n"/>
+      <c r="B2141" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
       <c r="C2141" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2141" t="n">
         <v>0</v>
       </c>
       <c r="E2141" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" s="1" t="n"/>
       <c r="B2142" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C2142" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2142" t="n">
         <v>0</v>
       </c>
       <c r="E2142" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2143">
-      <c r="A2143" s="1" t="n"/>
+      <c r="A2143" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="B2143" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="C2143" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2143" t="n">
@@ -34005,19 +34013,11 @@
       </c>
     </row>
     <row r="2144">
-      <c r="A2144" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
-      <c r="B2144" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
+      <c r="A2144" s="1" t="n"/>
+      <c r="B2144" s="1" t="n"/>
       <c r="C2144" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2144" t="n">
@@ -34029,10 +34029,14 @@
     </row>
     <row r="2145">
       <c r="A2145" s="1" t="n"/>
-      <c r="B2145" s="1" t="n"/>
+      <c r="B2145" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
       <c r="C2145" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2145" t="n">
@@ -34046,64 +34050,64 @@
       <c r="A2146" s="1" t="n"/>
       <c r="B2146" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2146" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2146" t="n">
         <v>0</v>
       </c>
       <c r="E2146" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2147">
       <c r="A2147" s="1" t="n"/>
       <c r="B2147" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2147" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2147" t="n">
         <v>0</v>
       </c>
       <c r="E2147" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n"/>
       <c r="B2148" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="C2148" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2148" t="n">
         <v>0</v>
       </c>
       <c r="E2148" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2149">
       <c r="A2149" s="1" t="n"/>
       <c r="B2149" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2149" s="1" t="inlineStr">
@@ -34120,14 +34124,10 @@
     </row>
     <row r="2150">
       <c r="A2150" s="1" t="n"/>
-      <c r="B2150" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2150" s="1" t="n"/>
       <c r="C2150" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2150" t="n">
@@ -34139,10 +34139,14 @@
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n"/>
-      <c r="B2151" s="1" t="n"/>
+      <c r="B2151" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
       <c r="C2151" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2151" t="n">
@@ -34154,14 +34158,10 @@
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n"/>
-      <c r="B2152" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2152" s="1" t="n"/>
       <c r="C2152" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2152" t="n">
@@ -34176,7 +34176,7 @@
       <c r="B2153" s="1" t="n"/>
       <c r="C2153" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2153" t="n">
@@ -34191,7 +34191,7 @@
       <c r="B2154" s="1" t="n"/>
       <c r="C2154" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2154" t="n">
@@ -34203,67 +34203,75 @@
     </row>
     <row r="2155">
       <c r="A2155" s="1" t="n"/>
-      <c r="B2155" s="1" t="n"/>
+      <c r="B2155" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
       <c r="C2155" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2155" t="n">
         <v>0</v>
       </c>
       <c r="E2155" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2156">
-      <c r="A2156" s="1" t="n"/>
+      <c r="A2156" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="B2156" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C2156" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2156" t="n">
         <v>0</v>
       </c>
       <c r="E2156" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" s="1" t="n"/>
+      <c r="B2157" s="1" t="inlineStr">
+        <is>
+          <t>AUX</t>
+        </is>
+      </c>
+      <c r="C2157" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="D2157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2157" t="n">
         <v>0.02725785934944576</v>
-      </c>
-    </row>
-    <row r="2157">
-      <c r="A2157" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
-      <c r="B2157" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="C2157" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
-      <c r="D2157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2157" t="n">
-        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n"/>
-      <c r="B2158" s="1" t="n"/>
+      <c r="B2158" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2158" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2158" t="n">
@@ -34277,7 +34285,7 @@
       <c r="A2159" s="1" t="n"/>
       <c r="B2159" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2159" s="1" t="inlineStr">
@@ -34289,19 +34297,15 @@
         <v>0</v>
       </c>
       <c r="E2159" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2160">
       <c r="A2160" s="1" t="n"/>
-      <c r="B2160" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
+      <c r="B2160" s="1" t="n"/>
       <c r="C2160" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2160" t="n">
@@ -34315,12 +34319,12 @@
       <c r="A2161" s="1" t="n"/>
       <c r="B2161" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2161" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2161" t="n">
@@ -34332,7 +34336,11 @@
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n"/>
-      <c r="B2162" s="1" t="n"/>
+      <c r="B2162" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="C2162" s="1" t="inlineStr">
         <is>
           <t>PROPN</t>
@@ -34349,31 +34357,27 @@
       <c r="A2163" s="1" t="n"/>
       <c r="B2163" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2163" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2163" t="n">
         <v>0</v>
       </c>
       <c r="E2163" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2164">
       <c r="A2164" s="1" t="n"/>
-      <c r="B2164" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
+      <c r="B2164" s="1" t="n"/>
       <c r="C2164" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2164" t="n">
@@ -34385,29 +34389,33 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n"/>
-      <c r="B2165" s="1" t="inlineStr">
+      <c r="B2165" s="1" t="n"/>
+      <c r="C2165" s="1" t="inlineStr">
+        <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="D2165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2165" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" s="1" t="inlineStr">
         <is>
           <t>PROPN</t>
         </is>
       </c>
-      <c r="C2165" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D2165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2165" t="n">
-        <v>0.02725785934944576</v>
-      </c>
-    </row>
-    <row r="2166">
-      <c r="A2166" s="1" t="n"/>
-      <c r="B2166" s="1" t="n"/>
+      <c r="B2166" s="1" t="inlineStr">
+        <is>
+          <t>ADJ</t>
+        </is>
+      </c>
       <c r="C2166" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2166" t="n">
@@ -34422,26 +34430,22 @@
       <c r="B2167" s="1" t="n"/>
       <c r="C2167" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2167" t="n">
         <v>0</v>
       </c>
       <c r="E2167" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2168">
       <c r="A2168" s="1" t="n"/>
-      <c r="B2168" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2168" s="1" t="n"/>
       <c r="C2168" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2168" t="n">
@@ -34452,19 +34456,11 @@
       </c>
     </row>
     <row r="2169">
-      <c r="A2169" s="1" t="inlineStr">
+      <c r="A2169" s="1" t="n"/>
+      <c r="B2169" s="1" t="n"/>
+      <c r="C2169" s="1" t="inlineStr">
         <is>
           <t>PROPN</t>
-        </is>
-      </c>
-      <c r="B2169" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
-      <c r="C2169" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
         </is>
       </c>
       <c r="D2169" t="n">
@@ -34479,29 +34475,33 @@
       <c r="B2170" s="1" t="n"/>
       <c r="C2170" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2170" t="n">
         <v>0</v>
       </c>
       <c r="E2170" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n"/>
-      <c r="B2171" s="1" t="n"/>
+      <c r="B2171" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
       <c r="C2171" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2171" t="n">
         <v>0</v>
       </c>
       <c r="E2171" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2172">
@@ -34509,7 +34509,7 @@
       <c r="B2172" s="1" t="n"/>
       <c r="C2172" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2172" t="n">
@@ -34524,7 +34524,7 @@
       <c r="B2173" s="1" t="n"/>
       <c r="C2173" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2173" t="n">
@@ -34536,14 +34536,10 @@
     </row>
     <row r="2174">
       <c r="A2174" s="1" t="n"/>
-      <c r="B2174" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="B2174" s="1" t="n"/>
       <c r="C2174" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2174" t="n">
@@ -34557,19 +34553,19 @@
       <c r="A2175" s="1" t="n"/>
       <c r="B2175" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C2175" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2175" t="n">
         <v>0</v>
       </c>
       <c r="E2175" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2176">
@@ -34577,7 +34573,7 @@
       <c r="B2176" s="1" t="n"/>
       <c r="C2176" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2176" t="n">
@@ -34592,26 +34588,22 @@
       <c r="B2177" s="1" t="n"/>
       <c r="C2177" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2177" t="n">
         <v>0</v>
       </c>
       <c r="E2177" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2178">
       <c r="A2178" s="1" t="n"/>
-      <c r="B2178" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
-        </is>
-      </c>
+      <c r="B2178" s="1" t="n"/>
       <c r="C2178" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2178" t="n">
@@ -34626,29 +34618,33 @@
       <c r="B2179" s="1" t="n"/>
       <c r="C2179" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2179" t="n">
         <v>0</v>
       </c>
       <c r="E2179" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n"/>
-      <c r="B2180" s="1" t="n"/>
+      <c r="B2180" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2180" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2180" t="n">
         <v>0</v>
       </c>
       <c r="E2180" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2181">
@@ -34656,14 +34652,14 @@
       <c r="B2181" s="1" t="n"/>
       <c r="C2181" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2181" t="n">
         <v>0</v>
       </c>
       <c r="E2181" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2182">
@@ -34671,26 +34667,26 @@
       <c r="B2182" s="1" t="n"/>
       <c r="C2182" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2182" t="n">
         <v>0</v>
       </c>
       <c r="E2182" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n"/>
       <c r="B2183" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2183" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2183" t="n">
@@ -34705,7 +34701,7 @@
       <c r="B2184" s="1" t="n"/>
       <c r="C2184" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2184" t="n">
@@ -34720,7 +34716,7 @@
       <c r="B2185" s="1" t="n"/>
       <c r="C2185" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2185" t="n">
@@ -34732,14 +34728,10 @@
     </row>
     <row r="2186">
       <c r="A2186" s="1" t="n"/>
-      <c r="B2186" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2186" s="1" t="n"/>
       <c r="C2186" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2186" t="n">
@@ -34751,17 +34743,21 @@
     </row>
     <row r="2187">
       <c r="A2187" s="1" t="n"/>
-      <c r="B2187" s="1" t="n"/>
+      <c r="B2187" s="1" t="inlineStr">
+        <is>
+          <t>NOUN</t>
+        </is>
+      </c>
       <c r="C2187" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2187" t="n">
         <v>0</v>
       </c>
       <c r="E2187" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2188">
@@ -34781,10 +34777,14 @@
     </row>
     <row r="2189">
       <c r="A2189" s="1" t="n"/>
-      <c r="B2189" s="1" t="n"/>
+      <c r="B2189" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2189" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2189" t="n">
@@ -34796,48 +34796,44 @@
     </row>
     <row r="2190">
       <c r="A2190" s="1" t="n"/>
-      <c r="B2190" s="1" t="inlineStr">
+      <c r="B2190" s="1" t="n"/>
+      <c r="C2190" s="1" t="inlineStr">
         <is>
           <t>NOUN</t>
         </is>
       </c>
-      <c r="C2190" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
       <c r="D2190" t="n">
         <v>0</v>
       </c>
       <c r="E2190" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n"/>
-      <c r="B2191" s="1" t="n"/>
+      <c r="B2191" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2191" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2191" t="n">
         <v>0</v>
       </c>
       <c r="E2191" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2192">
       <c r="A2192" s="1" t="n"/>
-      <c r="B2192" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2192" s="1" t="n"/>
       <c r="C2192" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2192" t="n">
@@ -34852,33 +34848,33 @@
       <c r="B2193" s="1" t="n"/>
       <c r="C2193" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2193" t="n">
         <v>0</v>
       </c>
       <c r="E2193" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2194">
       <c r="A2194" s="1" t="n"/>
       <c r="B2194" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="C2194" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2194" t="n">
         <v>0</v>
       </c>
       <c r="E2194" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2195">
@@ -34886,14 +34882,14 @@
       <c r="B2195" s="1" t="n"/>
       <c r="C2195" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2195" t="n">
         <v>0</v>
       </c>
       <c r="E2195" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2196">
@@ -34901,33 +34897,33 @@
       <c r="B2196" s="1" t="n"/>
       <c r="C2196" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2196" t="n">
         <v>0</v>
       </c>
       <c r="E2196" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2197">
       <c r="A2197" s="1" t="n"/>
       <c r="B2197" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2197" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2197" t="n">
         <v>0</v>
       </c>
       <c r="E2197" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2198">
@@ -34935,14 +34931,14 @@
       <c r="B2198" s="1" t="n"/>
       <c r="C2198" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2198" t="n">
         <v>0</v>
       </c>
       <c r="E2198" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2199">
@@ -34950,7 +34946,7 @@
       <c r="B2199" s="1" t="n"/>
       <c r="C2199" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2199" t="n">
@@ -34964,19 +34960,19 @@
       <c r="A2200" s="1" t="n"/>
       <c r="B2200" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2200" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2200" t="n">
         <v>0</v>
       </c>
       <c r="E2200" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2201">
@@ -34984,14 +34980,14 @@
       <c r="B2201" s="1" t="n"/>
       <c r="C2201" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2201" t="n">
         <v>0</v>
       </c>
       <c r="E2201" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2202">
@@ -34999,41 +34995,49 @@
       <c r="B2202" s="1" t="n"/>
       <c r="C2202" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2202" t="n">
         <v>0</v>
       </c>
       <c r="E2202" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2203">
       <c r="A2203" s="1" t="n"/>
       <c r="B2203" s="1" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C2203" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="D2203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2203" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" s="1" t="inlineStr">
+        <is>
+          <t>PUNCT</t>
+        </is>
+      </c>
+      <c r="B2204" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="C2204" s="1" t="inlineStr">
+        <is>
           <t>SCONJ</t>
-        </is>
-      </c>
-      <c r="C2203" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
-      <c r="D2203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2203" t="n">
-        <v>0.01817190623296384</v>
-      </c>
-    </row>
-    <row r="2204">
-      <c r="A2204" s="1" t="n"/>
-      <c r="B2204" s="1" t="n"/>
-      <c r="C2204" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2204" t="n">
@@ -35045,29 +35049,33 @@
     </row>
     <row r="2205">
       <c r="A2205" s="1" t="n"/>
-      <c r="B2205" s="1" t="n"/>
+      <c r="B2205" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2205" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2205" t="n">
         <v>0</v>
       </c>
       <c r="E2205" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" s="1" t="n"/>
       <c r="B2206" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2206" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2206" t="n">
@@ -35078,19 +35086,11 @@
       </c>
     </row>
     <row r="2207">
-      <c r="A2207" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
-      <c r="B2207" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="A2207" s="1" t="n"/>
+      <c r="B2207" s="1" t="n"/>
       <c r="C2207" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2207" t="n">
@@ -35104,12 +35104,12 @@
       <c r="A2208" s="1" t="n"/>
       <c r="B2208" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="C2208" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2208" t="n">
@@ -35123,27 +35123,31 @@
       <c r="A2209" s="1" t="n"/>
       <c r="B2209" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="C2209" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2209" t="n">
         <v>0</v>
       </c>
       <c r="E2209" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" s="1" t="n"/>
-      <c r="B2210" s="1" t="n"/>
+      <c r="B2210" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2210" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2210" t="n">
@@ -35155,14 +35159,10 @@
     </row>
     <row r="2211">
       <c r="A2211" s="1" t="n"/>
-      <c r="B2211" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="B2211" s="1" t="n"/>
       <c r="C2211" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2211" t="n">
@@ -35174,14 +35174,10 @@
     </row>
     <row r="2212">
       <c r="A2212" s="1" t="n"/>
-      <c r="B2212" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
+      <c r="B2212" s="1" t="n"/>
       <c r="C2212" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2212" t="n">
@@ -35195,12 +35191,12 @@
       <c r="A2213" s="1" t="n"/>
       <c r="B2213" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2213" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2213" t="n">
@@ -35211,26 +35207,38 @@
       </c>
     </row>
     <row r="2214">
-      <c r="A2214" s="1" t="n"/>
-      <c r="B2214" s="1" t="n"/>
+      <c r="A2214" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="B2214" s="1" t="inlineStr">
+        <is>
+          <t>ADJ</t>
+        </is>
+      </c>
       <c r="C2214" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2214" t="n">
         <v>0</v>
       </c>
       <c r="E2214" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" s="1" t="n"/>
-      <c r="B2215" s="1" t="n"/>
+      <c r="B2215" s="1" t="inlineStr">
+        <is>
+          <t>AUX</t>
+        </is>
+      </c>
       <c r="C2215" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2215" t="n">
@@ -35244,73 +35252,61 @@
       <c r="A2216" s="1" t="n"/>
       <c r="B2216" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2216" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2216" t="n">
         <v>0</v>
       </c>
       <c r="E2216" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2217">
-      <c r="A2217" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
-      <c r="B2217" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
+      <c r="A2217" s="1" t="n"/>
+      <c r="B2217" s="1" t="n"/>
       <c r="C2217" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2217" t="n">
         <v>0</v>
       </c>
       <c r="E2217" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2218">
       <c r="A2218" s="1" t="n"/>
-      <c r="B2218" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
-        </is>
-      </c>
+      <c r="B2218" s="1" t="n"/>
       <c r="C2218" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2218" t="n">
         <v>0</v>
       </c>
       <c r="E2218" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2219">
       <c r="A2219" s="1" t="n"/>
       <c r="B2219" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2219" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2219" t="n">
@@ -35322,7 +35318,11 @@
     </row>
     <row r="2220">
       <c r="A2220" s="1" t="n"/>
-      <c r="B2220" s="1" t="n"/>
+      <c r="B2220" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2220" s="1" t="inlineStr">
         <is>
           <t>ADP</t>
@@ -35337,10 +35337,14 @@
     </row>
     <row r="2221">
       <c r="A2221" s="1" t="n"/>
-      <c r="B2221" s="1" t="n"/>
+      <c r="B2221" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2221" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2221" t="n">
@@ -35352,29 +35356,33 @@
     </row>
     <row r="2222">
       <c r="A2222" s="1" t="n"/>
-      <c r="B2222" s="1" t="n"/>
+      <c r="B2222" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="C2222" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2222" t="n">
         <v>0</v>
       </c>
       <c r="E2222" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2223">
       <c r="A2223" s="1" t="n"/>
       <c r="B2223" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2223" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2223" t="n">
@@ -35388,12 +35396,12 @@
       <c r="A2224" s="1" t="n"/>
       <c r="B2224" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2224" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2224" t="n">
@@ -35407,12 +35415,12 @@
       <c r="A2225" s="1" t="n"/>
       <c r="B2225" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="C2225" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2225" t="n">
@@ -35424,14 +35432,10 @@
     </row>
     <row r="2226">
       <c r="A2226" s="1" t="n"/>
-      <c r="B2226" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
+      <c r="B2226" s="1" t="n"/>
       <c r="C2226" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2226" t="n">
@@ -35445,50 +35449,54 @@
       <c r="A2227" s="1" t="n"/>
       <c r="B2227" s="1" t="inlineStr">
         <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C2227" s="1" t="inlineStr">
+        <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="D2227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
+      <c r="B2228" s="1" t="inlineStr">
+        <is>
+          <t>ADJ</t>
+        </is>
+      </c>
+      <c r="C2228" s="1" t="inlineStr">
+        <is>
           <t>PROPN</t>
         </is>
       </c>
-      <c r="C2227" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
-      <c r="D2227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2227" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2228">
-      <c r="A2228" s="1" t="n"/>
-      <c r="B2228" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
-      <c r="C2228" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
       <c r="D2228" t="n">
         <v>0</v>
       </c>
       <c r="E2228" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" s="1" t="n"/>
       <c r="B2229" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="C2229" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2229" t="n">
@@ -35500,10 +35508,14 @@
     </row>
     <row r="2230">
       <c r="A2230" s="1" t="n"/>
-      <c r="B2230" s="1" t="n"/>
+      <c r="B2230" s="1" t="inlineStr">
+        <is>
+          <t>AUX</t>
+        </is>
+      </c>
       <c r="C2230" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2230" t="n">
@@ -35517,12 +35529,12 @@
       <c r="A2231" s="1" t="n"/>
       <c r="B2231" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2231" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2231" t="n">
@@ -35533,16 +35545,8 @@
       </c>
     </row>
     <row r="2232">
-      <c r="A2232" s="1" t="inlineStr">
-        <is>
-          <t>VERB</t>
-        </is>
-      </c>
-      <c r="B2232" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
+      <c r="A2232" s="1" t="n"/>
+      <c r="B2232" s="1" t="n"/>
       <c r="C2232" s="1" t="inlineStr">
         <is>
           <t>PROPN</t>
@@ -35552,35 +35556,31 @@
         <v>0</v>
       </c>
       <c r="E2232" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2233">
       <c r="A2233" s="1" t="n"/>
       <c r="B2233" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2233" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2233" t="n">
         <v>0</v>
       </c>
       <c r="E2233" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" s="1" t="n"/>
-      <c r="B2234" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
+      <c r="B2234" s="1" t="n"/>
       <c r="C2234" s="1" t="inlineStr">
         <is>
           <t>X</t>
@@ -35590,19 +35590,19 @@
         <v>0</v>
       </c>
       <c r="E2234" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" s="1" t="n"/>
       <c r="B2235" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2235" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2235" t="n">
@@ -35614,14 +35614,10 @@
     </row>
     <row r="2236">
       <c r="A2236" s="1" t="n"/>
-      <c r="B2236" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2236" s="1" t="n"/>
       <c r="C2236" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2236" t="n">
@@ -35633,48 +35629,44 @@
     </row>
     <row r="2237">
       <c r="A2237" s="1" t="n"/>
-      <c r="B2237" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
+      <c r="B2237" s="1" t="n"/>
       <c r="C2237" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2237" t="n">
         <v>0</v>
       </c>
       <c r="E2237" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2238">
       <c r="A2238" s="1" t="n"/>
-      <c r="B2238" s="1" t="n"/>
+      <c r="B2238" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2238" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2238" t="n">
         <v>0</v>
       </c>
       <c r="E2238" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2239">
       <c r="A2239" s="1" t="n"/>
-      <c r="B2239" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2239" s="1" t="n"/>
       <c r="C2239" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2239" t="n">
@@ -35686,10 +35678,14 @@
     </row>
     <row r="2240">
       <c r="A2240" s="1" t="n"/>
-      <c r="B2240" s="1" t="n"/>
+      <c r="B2240" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
       <c r="C2240" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2240" t="n">
@@ -35704,7 +35700,7 @@
       <c r="B2241" s="1" t="n"/>
       <c r="C2241" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2241" t="n">
@@ -35716,14 +35712,10 @@
     </row>
     <row r="2242">
       <c r="A2242" s="1" t="n"/>
-      <c r="B2242" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2242" s="1" t="n"/>
       <c r="C2242" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2242" t="n">
@@ -35735,10 +35727,14 @@
     </row>
     <row r="2243">
       <c r="A2243" s="1" t="n"/>
-      <c r="B2243" s="1" t="n"/>
+      <c r="B2243" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
       <c r="C2243" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2243" t="n">
@@ -35750,36 +35746,40 @@
     </row>
     <row r="2244">
       <c r="A2244" s="1" t="n"/>
-      <c r="B2244" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2244" s="1" t="n"/>
       <c r="C2244" s="1" t="inlineStr">
         <is>
+          <t>VERB</t>
+        </is>
+      </c>
+      <c r="D2244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2244" t="n">
+        <v>0.01817190623296384</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="B2245" s="1" t="inlineStr">
+        <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="C2245" s="1" t="inlineStr">
+        <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="D2244" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2244" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2245">
-      <c r="A2245" s="1" t="n"/>
-      <c r="B2245" s="1" t="n"/>
-      <c r="C2245" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
       <c r="D2245" t="n">
         <v>0</v>
       </c>
       <c r="E2245" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2246">
@@ -35787,7 +35787,7 @@
       <c r="B2246" s="1" t="n"/>
       <c r="C2246" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2246" t="n">
@@ -35801,12 +35801,12 @@
       <c r="A2247" s="1" t="n"/>
       <c r="B2247" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2247" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2247" t="n">
@@ -35818,48 +35818,52 @@
     </row>
     <row r="2248">
       <c r="A2248" s="1" t="n"/>
-      <c r="B2248" s="1" t="n"/>
+      <c r="B2248" s="1" t="inlineStr">
+        <is>
+          <t>PUNCT</t>
+        </is>
+      </c>
       <c r="C2248" s="1" t="inlineStr">
         <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="D2248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2248" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" s="1" t="n"/>
+      <c r="B2249" s="1" t="inlineStr">
+        <is>
           <t>VERB</t>
         </is>
       </c>
-      <c r="D2248" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2248" t="n">
-        <v>0.01817190623296384</v>
-      </c>
-    </row>
-    <row r="2249">
-      <c r="A2249" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="B2249" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
       <c r="C2249" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2249" t="n">
         <v>0</v>
       </c>
       <c r="E2249" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2250">
       <c r="A2250" s="1" t="n"/>
-      <c r="B2250" s="1" t="n"/>
+      <c r="B2250" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C2250" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2250" t="n">
@@ -35871,112 +35875,36 @@
     </row>
     <row r="2251">
       <c r="A2251" s="1" t="n"/>
-      <c r="B2251" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2251" s="1" t="n"/>
       <c r="C2251" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2251" t="n">
         <v>0</v>
       </c>
       <c r="E2251" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" s="1" t="n"/>
-      <c r="B2252" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2252" s="1" t="n"/>
       <c r="C2252" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2252" t="n">
         <v>0</v>
       </c>
       <c r="E2252" t="n">
-        <v>0.01817190623296384</v>
-      </c>
-    </row>
-    <row r="2253">
-      <c r="A2253" s="1" t="n"/>
-      <c r="B2253" s="1" t="inlineStr">
-        <is>
-          <t>VERB</t>
-        </is>
-      </c>
-      <c r="C2253" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
-      <c r="D2253" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2253" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2254">
-      <c r="A2254" s="1" t="n"/>
-      <c r="B2254" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="C2254" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
-      <c r="D2254" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2254" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2255">
-      <c r="A2255" s="1" t="n"/>
-      <c r="B2255" s="1" t="n"/>
-      <c r="C2255" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="D2255" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2255" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2256">
-      <c r="A2256" s="1" t="n"/>
-      <c r="B2256" s="1" t="n"/>
-      <c r="C2256" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
-      <c r="D2256" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2256" t="n">
         <v>0.009085953116481919</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="320">
+  <mergeCells count="319">
     <mergeCell ref="A2:A185"/>
     <mergeCell ref="A186:A326"/>
     <mergeCell ref="A327:A423"/>
@@ -35996,21 +35924,21 @@
     <mergeCell ref="A1787:A1937"/>
     <mergeCell ref="A1938:A1985"/>
     <mergeCell ref="A1986:A1991"/>
-    <mergeCell ref="A1992:A2010"/>
-    <mergeCell ref="A2011:A2030"/>
-    <mergeCell ref="A2031:A2041"/>
-    <mergeCell ref="A2042:A2056"/>
-    <mergeCell ref="A2057:A2081"/>
-    <mergeCell ref="A2082:A2106"/>
-    <mergeCell ref="A2107:A2126"/>
-    <mergeCell ref="A2127:A2143"/>
-    <mergeCell ref="A2144:A2156"/>
-    <mergeCell ref="A2157:A2168"/>
-    <mergeCell ref="A2169:A2206"/>
-    <mergeCell ref="A2207:A2216"/>
-    <mergeCell ref="A2217:A2231"/>
-    <mergeCell ref="A2232:A2248"/>
-    <mergeCell ref="A2249:A2256"/>
+    <mergeCell ref="A1992:A2011"/>
+    <mergeCell ref="A2012:A2030"/>
+    <mergeCell ref="A2031:A2042"/>
+    <mergeCell ref="A2043:A2056"/>
+    <mergeCell ref="A2057:A2080"/>
+    <mergeCell ref="A2081:A2106"/>
+    <mergeCell ref="A2107:A2125"/>
+    <mergeCell ref="A2126:A2142"/>
+    <mergeCell ref="A2143:A2155"/>
+    <mergeCell ref="A2156:A2165"/>
+    <mergeCell ref="A2166:A2203"/>
+    <mergeCell ref="A2204:A2213"/>
+    <mergeCell ref="A2214:A2227"/>
+    <mergeCell ref="A2228:A2244"/>
+    <mergeCell ref="A2245:A2252"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B29"/>
     <mergeCell ref="B30:B38"/>
@@ -36228,75 +36156,74 @@
     <mergeCell ref="B1982:B1985"/>
     <mergeCell ref="B1989:B1990"/>
     <mergeCell ref="B1992:B1995"/>
-    <mergeCell ref="B1999:B2000"/>
-    <mergeCell ref="B2001:B2005"/>
-    <mergeCell ref="B2006:B2007"/>
-    <mergeCell ref="B2008:B2009"/>
-    <mergeCell ref="B2013:B2014"/>
-    <mergeCell ref="B2015:B2016"/>
-    <mergeCell ref="B2018:B2019"/>
-    <mergeCell ref="B2021:B2023"/>
-    <mergeCell ref="B2024:B2025"/>
-    <mergeCell ref="B2028:B2029"/>
+    <mergeCell ref="B1999:B2001"/>
+    <mergeCell ref="B2002:B2006"/>
+    <mergeCell ref="B2007:B2008"/>
+    <mergeCell ref="B2009:B2010"/>
+    <mergeCell ref="B2014:B2015"/>
+    <mergeCell ref="B2016:B2017"/>
+    <mergeCell ref="B2019:B2020"/>
+    <mergeCell ref="B2022:B2024"/>
+    <mergeCell ref="B2025:B2026"/>
     <mergeCell ref="B2031:B2032"/>
     <mergeCell ref="B2035:B2036"/>
-    <mergeCell ref="B2043:B2044"/>
-    <mergeCell ref="B2046:B2048"/>
-    <mergeCell ref="B2049:B2052"/>
-    <mergeCell ref="B2054:B2055"/>
+    <mergeCell ref="B2039:B2040"/>
+    <mergeCell ref="B2044:B2045"/>
+    <mergeCell ref="B2047:B2049"/>
+    <mergeCell ref="B2050:B2053"/>
     <mergeCell ref="B2057:B2058"/>
     <mergeCell ref="B2059:B2060"/>
     <mergeCell ref="B2061:B2063"/>
-    <mergeCell ref="B2064:B2065"/>
-    <mergeCell ref="B2066:B2068"/>
-    <mergeCell ref="B2069:B2070"/>
-    <mergeCell ref="B2071:B2073"/>
-    <mergeCell ref="B2074:B2075"/>
-    <mergeCell ref="B2077:B2080"/>
-    <mergeCell ref="B2085:B2087"/>
-    <mergeCell ref="B2088:B2090"/>
-    <mergeCell ref="B2091:B2093"/>
-    <mergeCell ref="B2095:B2096"/>
-    <mergeCell ref="B2097:B2105"/>
+    <mergeCell ref="B2065:B2067"/>
+    <mergeCell ref="B2068:B2069"/>
+    <mergeCell ref="B2070:B2072"/>
+    <mergeCell ref="B2073:B2074"/>
+    <mergeCell ref="B2076:B2079"/>
+    <mergeCell ref="B2084:B2086"/>
+    <mergeCell ref="B2087:B2089"/>
+    <mergeCell ref="B2090:B2092"/>
+    <mergeCell ref="B2094:B2095"/>
+    <mergeCell ref="B2096:B2104"/>
+    <mergeCell ref="B2105:B2106"/>
     <mergeCell ref="B2107:B2108"/>
-    <mergeCell ref="B2110:B2113"/>
-    <mergeCell ref="B2114:B2115"/>
-    <mergeCell ref="B2116:B2117"/>
-    <mergeCell ref="B2118:B2119"/>
-    <mergeCell ref="B2120:B2121"/>
-    <mergeCell ref="B2123:B2125"/>
-    <mergeCell ref="B2127:B2128"/>
-    <mergeCell ref="B2129:B2130"/>
-    <mergeCell ref="B2135:B2137"/>
-    <mergeCell ref="B2140:B2141"/>
-    <mergeCell ref="B2144:B2145"/>
-    <mergeCell ref="B2150:B2151"/>
-    <mergeCell ref="B2152:B2155"/>
-    <mergeCell ref="B2157:B2158"/>
-    <mergeCell ref="B2161:B2162"/>
-    <mergeCell ref="B2165:B2167"/>
-    <mergeCell ref="B2169:B2173"/>
-    <mergeCell ref="B2175:B2177"/>
-    <mergeCell ref="B2178:B2182"/>
-    <mergeCell ref="B2183:B2185"/>
-    <mergeCell ref="B2186:B2189"/>
-    <mergeCell ref="B2190:B2191"/>
-    <mergeCell ref="B2192:B2193"/>
+    <mergeCell ref="B2110:B2112"/>
+    <mergeCell ref="B2113:B2114"/>
+    <mergeCell ref="B2115:B2116"/>
+    <mergeCell ref="B2117:B2118"/>
+    <mergeCell ref="B2119:B2120"/>
+    <mergeCell ref="B2122:B2124"/>
+    <mergeCell ref="B2126:B2127"/>
+    <mergeCell ref="B2128:B2129"/>
+    <mergeCell ref="B2134:B2136"/>
+    <mergeCell ref="B2139:B2140"/>
+    <mergeCell ref="B2143:B2144"/>
+    <mergeCell ref="B2149:B2150"/>
+    <mergeCell ref="B2151:B2154"/>
+    <mergeCell ref="B2159:B2160"/>
+    <mergeCell ref="B2163:B2165"/>
+    <mergeCell ref="B2166:B2170"/>
+    <mergeCell ref="B2171:B2174"/>
+    <mergeCell ref="B2175:B2179"/>
+    <mergeCell ref="B2180:B2182"/>
+    <mergeCell ref="B2183:B2186"/>
+    <mergeCell ref="B2187:B2188"/>
+    <mergeCell ref="B2189:B2190"/>
+    <mergeCell ref="B2191:B2193"/>
     <mergeCell ref="B2194:B2196"/>
     <mergeCell ref="B2197:B2199"/>
     <mergeCell ref="B2200:B2202"/>
-    <mergeCell ref="B2203:B2205"/>
-    <mergeCell ref="B2209:B2210"/>
-    <mergeCell ref="B2213:B2215"/>
-    <mergeCell ref="B2219:B2222"/>
-    <mergeCell ref="B2229:B2230"/>
-    <mergeCell ref="B2237:B2238"/>
-    <mergeCell ref="B2239:B2241"/>
-    <mergeCell ref="B2242:B2243"/>
-    <mergeCell ref="B2244:B2246"/>
-    <mergeCell ref="B2247:B2248"/>
-    <mergeCell ref="B2249:B2250"/>
-    <mergeCell ref="B2254:B2256"/>
+    <mergeCell ref="B2206:B2207"/>
+    <mergeCell ref="B2210:B2212"/>
+    <mergeCell ref="B2216:B2218"/>
+    <mergeCell ref="B2225:B2226"/>
+    <mergeCell ref="B2231:B2232"/>
+    <mergeCell ref="B2233:B2234"/>
+    <mergeCell ref="B2235:B2237"/>
+    <mergeCell ref="B2238:B2239"/>
+    <mergeCell ref="B2240:B2242"/>
+    <mergeCell ref="B2243:B2244"/>
+    <mergeCell ref="B2245:B2246"/>
+    <mergeCell ref="B2250:B2252"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/ngram_stats/upos_trigrams.xlsx
+++ b/data/ngram_stats/upos_trigrams.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2252"/>
+  <dimension ref="A1:E2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
         <v>0.6965069519278787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4542976558240959</v>
+        <v>0.4633836089405778</v>
       </c>
     </row>
     <row r="4">
@@ -531,7 +531,7 @@
         <v>0.1340447341446106</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="6">
@@ -591,7 +591,7 @@
         <v>1.235314216626804</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8177357804833727</v>
+        <v>0.8086498273668908</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         <v>0.3758509212290063</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1362892967472288</v>
+        <v>0.1272033436307469</v>
       </c>
     </row>
     <row r="12">
@@ -651,7 +651,7 @@
         <v>0.2391778589639131</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.1544612029801926</v>
       </c>
     </row>
     <row r="14">
@@ -696,7 +696,7 @@
         <v>0.9645964202170999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7995638742504089</v>
+        <v>0.790477921133927</v>
       </c>
     </row>
     <row r="17">
@@ -959,7 +959,7 @@
         <v>0.3811075774699713</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1726331092131564</v>
+        <v>0.1817190623296384</v>
       </c>
     </row>
     <row r="34">
@@ -1252,7 +1252,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="53">
@@ -1808,7 +1808,7 @@
         <v>0.0473099061686861</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1817190623296384</v>
+        <v>0.1726331092131564</v>
       </c>
     </row>
     <row r="89">
@@ -2146,7 +2146,7 @@
         <v>0.01839829684337793</v>
       </c>
       <c r="E110" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="111">
@@ -3051,7 +3051,7 @@
         <v>0.01839829684337793</v>
       </c>
       <c r="E169" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="170">
@@ -3382,7 +3382,7 @@
         <v>0.2207795621205351</v>
       </c>
       <c r="E190" t="n">
-        <v>0.2544066872614937</v>
+        <v>0.2634926403779757</v>
       </c>
     </row>
     <row r="191">
@@ -3566,7 +3566,7 @@
         <v>0.08936315609640708</v>
       </c>
       <c r="E202" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.1362892967472288</v>
       </c>
     </row>
     <row r="203">
@@ -3750,7 +3750,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E214" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="215">
@@ -4186,7 +4186,7 @@
         <v>0.5361789365784425</v>
       </c>
       <c r="E242" t="n">
-        <v>0.4542976558240959</v>
+        <v>0.445211702707614</v>
       </c>
     </row>
     <row r="243">
@@ -4201,7 +4201,7 @@
         <v>0.4941256866507215</v>
       </c>
       <c r="E243" t="n">
-        <v>0.4542976558240959</v>
+        <v>0.4633836089405778</v>
       </c>
     </row>
     <row r="244">
@@ -4231,7 +4231,7 @@
         <v>0.06570820301206402</v>
       </c>
       <c r="E245" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="246">
@@ -4246,7 +4246,7 @@
         <v>0.2549478276868084</v>
       </c>
       <c r="E246" t="n">
-        <v>0.2544066872614937</v>
+        <v>0.2453207341450118</v>
       </c>
     </row>
     <row r="247">
@@ -4276,7 +4276,7 @@
         <v>0.6307987489158147</v>
       </c>
       <c r="E248" t="n">
-        <v>0.4361257495911321</v>
+        <v>0.4179538433581683</v>
       </c>
     </row>
     <row r="249">
@@ -4336,7 +4336,7 @@
         <v>0.07096485925302914</v>
       </c>
       <c r="E252" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.1544612029801926</v>
       </c>
     </row>
     <row r="253">
@@ -4396,7 +4396,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E256" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="257">
@@ -4941,7 +4941,7 @@
         <v>0.08410649985544195</v>
       </c>
       <c r="E291" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="292">
@@ -4956,7 +4956,7 @@
         <v>0.04205324992772098</v>
       </c>
       <c r="E292" t="n">
-        <v>0.07268762493185535</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="293">
@@ -4986,7 +4986,7 @@
         <v>0.1209030935421978</v>
       </c>
       <c r="E294" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.1362892967472288</v>
       </c>
     </row>
     <row r="295">
@@ -5531,7 +5531,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E329" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="330">
@@ -5651,7 +5651,7 @@
         <v>0.09199148421688963</v>
       </c>
       <c r="E337" t="n">
-        <v>0.06360167181537343</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="338">
@@ -5854,7 +5854,7 @@
         <v>0.07096485925302914</v>
       </c>
       <c r="E350" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="351">
@@ -6038,7 +6038,7 @@
         <v>0.885746576602623</v>
       </c>
       <c r="E362" t="n">
-        <v>0.8722514991822642</v>
+        <v>0.8813374522987462</v>
       </c>
     </row>
     <row r="363">
@@ -6233,7 +6233,7 @@
         <v>0.4441874523615528</v>
       </c>
       <c r="E375" t="n">
-        <v>0.5360712338724333</v>
+        <v>0.5269852807559513</v>
       </c>
     </row>
     <row r="376">
@@ -6440,7 +6440,7 @@
         <v>0.06307987489158147</v>
       </c>
       <c r="E388" t="n">
-        <v>0.06360167181537343</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="389">
@@ -6699,7 +6699,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E405" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="406">
@@ -6714,7 +6714,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E406" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="407">
@@ -6804,7 +6804,7 @@
         <v>0.2654611401687387</v>
       </c>
       <c r="E412" t="n">
-        <v>0.6996183899691077</v>
+        <v>0.6905324368526258</v>
       </c>
     </row>
     <row r="413">
@@ -6834,7 +6834,7 @@
         <v>0.07359318737351171</v>
       </c>
       <c r="E414" t="n">
-        <v>0.218062874795566</v>
+        <v>0.2089769216790841</v>
       </c>
     </row>
     <row r="415">
@@ -7808,7 +7808,7 @@
         <v>0.0341682655662733</v>
       </c>
       <c r="E476" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="477">
@@ -7868,7 +7868,7 @@
         <v>0.05519489053013378</v>
       </c>
       <c r="E480" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="481">
@@ -8011,7 +8011,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E489" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="490">
@@ -8131,7 +8131,7 @@
         <v>0.0998764685783373</v>
       </c>
       <c r="E497" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="498">
@@ -8687,7 +8687,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E533" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="534">
@@ -8924,7 +8924,7 @@
         <v>0.1471863747470234</v>
       </c>
       <c r="E548" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="549">
@@ -8969,7 +8969,7 @@
         <v>0.1576996872289537</v>
       </c>
       <c r="E551" t="n">
-        <v>0.07268762493185535</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="552">
@@ -9202,7 +9202,7 @@
         <v>0.09724814045785476</v>
       </c>
       <c r="E566" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="567">
@@ -9728,7 +9728,7 @@
         <v>0.06307987489158147</v>
       </c>
       <c r="E600" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="601">
@@ -9803,7 +9803,7 @@
         <v>0.07096485925302914</v>
       </c>
       <c r="E605" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="606">
@@ -9886,7 +9886,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E610" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="611">
@@ -10641,7 +10641,7 @@
         <v>0.03679659368675586</v>
       </c>
       <c r="E659" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="660">
@@ -10739,7 +10739,7 @@
         <v>0.2418061870843956</v>
       </c>
       <c r="E665" t="n">
-        <v>0.1908050154461203</v>
+        <v>0.1817190623296384</v>
       </c>
     </row>
     <row r="666">
@@ -10848,7 +10848,7 @@
         <v>0.1445580466265409</v>
       </c>
       <c r="E672" t="n">
-        <v>0.2544066872614937</v>
+        <v>0.2453207341450118</v>
       </c>
     </row>
     <row r="673">
@@ -11017,7 +11017,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E683" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="684">
@@ -11205,7 +11205,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E695" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="696">
@@ -11359,7 +11359,7 @@
         <v>0.01839829684337793</v>
       </c>
       <c r="E705" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="706">
@@ -12843,7 +12843,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E801" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="802">
@@ -13377,7 +13377,7 @@
         <v>0.1287880779036455</v>
       </c>
       <c r="E835" t="n">
-        <v>0.1726331092131564</v>
+        <v>0.1908050154461203</v>
       </c>
     </row>
     <row r="836">
@@ -14065,7 +14065,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E879" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="880">
@@ -14352,7 +14352,7 @@
         <v>0.149814702867506</v>
       </c>
       <c r="E896" t="n">
-        <v>0.2634926403779757</v>
+        <v>0.2725785934944576</v>
       </c>
     </row>
     <row r="897">
@@ -14442,7 +14442,7 @@
         <v>0.8568349672773149</v>
       </c>
       <c r="E902" t="n">
-        <v>0.6632745775031801</v>
+        <v>0.6451026712702163</v>
       </c>
     </row>
     <row r="903">
@@ -14671,7 +14671,7 @@
         <v>0.07622151549399427</v>
       </c>
       <c r="E917" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="918">
@@ -14915,7 +14915,7 @@
         <v>0.07359318737351171</v>
       </c>
       <c r="E933" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.09085953116481918</v>
       </c>
     </row>
     <row r="934">
@@ -14934,7 +14934,7 @@
         <v>0.131416406024128</v>
       </c>
       <c r="E934" t="n">
-        <v>0.109031437397783</v>
+        <v>0.1181173905142649</v>
       </c>
     </row>
     <row r="935">
@@ -15392,7 +15392,7 @@
         <v>0.1892396246747444</v>
       </c>
       <c r="E964" t="n">
-        <v>0.3997819371252044</v>
+        <v>0.3906959840087225</v>
       </c>
     </row>
     <row r="965">
@@ -15516,7 +15516,7 @@
         <v>0.4179041711567272</v>
       </c>
       <c r="E972" t="n">
-        <v>0.3452662184263129</v>
+        <v>0.336180265309831</v>
       </c>
     </row>
     <row r="973">
@@ -15531,7 +15531,7 @@
         <v>0.03153993744579073</v>
       </c>
       <c r="E973" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="974">
@@ -16162,7 +16162,7 @@
         <v>0.01051331248193024</v>
       </c>
       <c r="E1014" t="n">
-        <v>0.06360167181537343</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="1015">
@@ -16192,7 +16192,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1016" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1017">
@@ -16361,7 +16361,7 @@
         <v>3.10931216653087</v>
       </c>
       <c r="E1027" t="n">
-        <v>1.353807014355806</v>
+        <v>1.344721061239324</v>
       </c>
     </row>
     <row r="1028">
@@ -16421,7 +16421,7 @@
         <v>0.08936315609640708</v>
       </c>
       <c r="E1031" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="1032">
@@ -16601,7 +16601,7 @@
         <v>0.6360554051567798</v>
       </c>
       <c r="E1043" t="n">
-        <v>0.5724150463383609</v>
+        <v>0.5542431401053971</v>
       </c>
     </row>
     <row r="1044">
@@ -16774,7 +16774,7 @@
         <v>0.1471863747470234</v>
       </c>
       <c r="E1054" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.1181173905142649</v>
       </c>
     </row>
     <row r="1055">
@@ -16864,7 +16864,7 @@
         <v>0.43104581175914</v>
       </c>
       <c r="E1060" t="n">
-        <v>0.5088133745229875</v>
+        <v>0.5178993276394693</v>
       </c>
     </row>
     <row r="1061">
@@ -16909,7 +16909,7 @@
         <v>0.4494441086025179</v>
       </c>
       <c r="E1063" t="n">
-        <v>0.3543521715427948</v>
+        <v>0.3452662184263129</v>
       </c>
     </row>
     <row r="1064">
@@ -17048,7 +17048,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E1072" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1073">
@@ -17078,7 +17078,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E1074" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1075">
@@ -18440,7 +18440,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1160" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1161">
@@ -18617,7 +18617,7 @@
         <v>0.03942492180723842</v>
       </c>
       <c r="E1171" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="1172">
@@ -18662,7 +18662,7 @@
         <v>0.005256656240965122</v>
       </c>
       <c r="E1174" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1175">
@@ -19620,7 +19620,7 @@
         <v>0.1393013903855757</v>
       </c>
       <c r="E1236" t="n">
-        <v>0.07268762493185535</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1237">
@@ -19842,7 +19842,7 @@
         <v>0.03942492180723842</v>
       </c>
       <c r="E1250" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1251">
@@ -20526,7 +20526,7 @@
         <v>0.08936315609640708</v>
       </c>
       <c r="E1294" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="1295">
@@ -21845,7 +21845,7 @@
         <v>0.01314164060241281</v>
       </c>
       <c r="E1379" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1380">
@@ -21939,7 +21939,7 @@
         <v>0.03679659368675586</v>
       </c>
       <c r="E1385" t="n">
-        <v>0.06360167181537343</v>
+        <v>0.08177357804833726</v>
       </c>
     </row>
     <row r="1386">
@@ -21954,7 +21954,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E1386" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="1387">
@@ -22014,7 +22014,7 @@
         <v>0.04993823428916865</v>
       </c>
       <c r="E1390" t="n">
-        <v>0.4906414682900236</v>
+        <v>0.4633836089405778</v>
       </c>
     </row>
     <row r="1391">
@@ -22127,7 +22127,7 @@
         <v>0.01839829684337793</v>
       </c>
       <c r="E1397" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1398">
@@ -22311,7 +22311,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E1409" t="n">
-        <v>0.09994548428130111</v>
+        <v>0.109031437397783</v>
       </c>
     </row>
     <row r="1410">
@@ -22439,7 +22439,7 @@
         <v>0.007884984361447684</v>
       </c>
       <c r="E1417" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="1418">
@@ -22725,7 +22725,7 @@
         <v>0.04468157804820354</v>
       </c>
       <c r="E1435" t="n">
-        <v>0.1272033436307469</v>
+        <v>0.1181173905142649</v>
       </c>
     </row>
     <row r="1436">
@@ -22770,7 +22770,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E1438" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.09085953116481918</v>
       </c>
     </row>
     <row r="1439">
@@ -22879,7 +22879,7 @@
         <v>0.5624622177832681</v>
       </c>
       <c r="E1445" t="n">
-        <v>0.5905869525713248</v>
+        <v>0.5996729056878066</v>
       </c>
     </row>
     <row r="1446">
@@ -22954,7 +22954,7 @@
         <v>0.05256656240965123</v>
       </c>
       <c r="E1450" t="n">
-        <v>0.1908050154461203</v>
+        <v>0.1817190623296384</v>
       </c>
     </row>
     <row r="1451">
@@ -23187,7 +23187,7 @@
         <v>0.03942492180723842</v>
       </c>
       <c r="E1465" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1466">
@@ -24021,7 +24021,7 @@
         <v>0.02365495308434305</v>
       </c>
       <c r="E1519" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1520">
@@ -24055,7 +24055,7 @@
         <v>0.07884984361447683</v>
       </c>
       <c r="E1521" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1522">
@@ -24209,7 +24209,7 @@
         <v>0.05782321865061634</v>
       </c>
       <c r="E1531" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="1532">
@@ -24239,7 +24239,7 @@
         <v>0.1025047966988199</v>
       </c>
       <c r="E1533" t="n">
-        <v>0.109031437397783</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="1534">
@@ -24284,7 +24284,7 @@
         <v>0.01576996872289537</v>
       </c>
       <c r="E1536" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.06360167181537343</v>
       </c>
     </row>
     <row r="1537">
@@ -24468,7 +24468,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E1548" t="n">
-        <v>0</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1549">
@@ -24573,7 +24573,7 @@
         <v>0.2050095933976397</v>
       </c>
       <c r="E1555" t="n">
-        <v>0.109031437397783</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="1556">
@@ -24716,7 +24716,7 @@
         <v>0.1655846715904014</v>
       </c>
       <c r="E1564" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.1362892967472288</v>
       </c>
     </row>
     <row r="1565">
@@ -24761,7 +24761,7 @@
         <v>0.06833653113254659</v>
       </c>
       <c r="E1567" t="n">
-        <v>0.1181173905142649</v>
+        <v>0.1272033436307469</v>
       </c>
     </row>
     <row r="1568">
@@ -24994,7 +24994,7 @@
         <v>0.03679659368675586</v>
       </c>
       <c r="E1582" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1583">
@@ -25790,7 +25790,7 @@
         <v>0.1918679527952269</v>
       </c>
       <c r="E1634" t="n">
-        <v>0.1544612029801926</v>
+        <v>0.1635471560966745</v>
       </c>
     </row>
     <row r="1635">
@@ -25963,7 +25963,7 @@
         <v>0.07884984361447683</v>
       </c>
       <c r="E1645" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1646">
@@ -27079,7 +27079,7 @@
         <v>0.02891160932530817</v>
       </c>
       <c r="E1717" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1718">
@@ -27511,7 +27511,7 @@
         <v>0.02628328120482561</v>
       </c>
       <c r="E1745" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1746">
@@ -28196,7 +28196,7 @@
         <v>0.0473099061686861</v>
       </c>
       <c r="E1788" t="n">
-        <v>0.01817190623296384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1789">
@@ -28256,7 +28256,7 @@
         <v>0.4284174836386574</v>
       </c>
       <c r="E1792" t="n">
-        <v>0.3180083590768671</v>
+        <v>0.3089224059603852</v>
       </c>
     </row>
     <row r="1793">
@@ -28474,7 +28474,7 @@
         <v>0.04993823428916865</v>
       </c>
       <c r="E1806" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="1807">
@@ -29180,7 +29180,7 @@
         <v>0.06833653113254659</v>
       </c>
       <c r="E1852" t="n">
-        <v>0.2089769216790841</v>
+        <v>0.218062874795566</v>
       </c>
     </row>
     <row r="1853">
@@ -29210,7 +29210,7 @@
         <v>0.3311693431808027</v>
       </c>
       <c r="E1854" t="n">
-        <v>0.2725785934944576</v>
+        <v>0.2634926403779757</v>
       </c>
     </row>
     <row r="1855">
@@ -29413,7 +29413,7 @@
         <v>0.05782321865061634</v>
       </c>
       <c r="E1867" t="n">
-        <v>0.08177357804833726</v>
+        <v>0.07268762493185535</v>
       </c>
     </row>
     <row r="1868">
@@ -30085,7 +30085,7 @@
         <v>0.05782321865061634</v>
       </c>
       <c r="E1911" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="1912">
@@ -30145,7 +30145,7 @@
         <v>0.3863642337109365</v>
       </c>
       <c r="E1915" t="n">
-        <v>0.1544612029801926</v>
+        <v>0.1635471560966745</v>
       </c>
     </row>
     <row r="1916">
@@ -30160,7 +30160,7 @@
         <v>0.1655846715904014</v>
       </c>
       <c r="E1916" t="n">
-        <v>0.2544066872614937</v>
+        <v>0.2634926403779757</v>
       </c>
     </row>
     <row r="1917">
@@ -30423,7 +30423,7 @@
         <v>0.05782321865061634</v>
       </c>
       <c r="E1933" t="n">
-        <v>0.09085953116481918</v>
+        <v>0.09994548428130111</v>
       </c>
     </row>
     <row r="1934">
@@ -30702,7 +30702,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E1950" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1951">
@@ -30781,7 +30781,7 @@
         <v>0.002628328120482561</v>
       </c>
       <c r="E1955" t="n">
-        <v>0.009085953116481919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1956">
@@ -31354,52 +31354,52 @@
       </c>
       <c r="C1991" s="1" t="inlineStr">
         <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D1991" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1991" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992" s="1" t="n"/>
+      <c r="B1992" s="1" t="n"/>
+      <c r="C1992" s="1" t="inlineStr">
+        <is>
           <t>NOUN</t>
         </is>
       </c>
-      <c r="D1991" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1991" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="1992">
-      <c r="A1992" s="1" t="inlineStr">
+      <c r="D1992" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1992" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993" s="1" t="inlineStr">
         <is>
           <t>ADJ</t>
         </is>
       </c>
-      <c r="B1992" s="1" t="inlineStr">
+      <c r="B1993" s="1" t="inlineStr">
         <is>
           <t>ADJ</t>
         </is>
       </c>
-      <c r="C1992" s="1" t="inlineStr">
+      <c r="C1993" s="1" t="inlineStr">
         <is>
           <t>ADJ</t>
         </is>
       </c>
-      <c r="D1992" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1992" t="n">
+      <c r="D1993" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1993" t="n">
         <v>0.03634381246592767</v>
-      </c>
-    </row>
-    <row r="1993">
-      <c r="A1993" s="1" t="n"/>
-      <c r="B1993" s="1" t="n"/>
-      <c r="C1993" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
-      <c r="D1993" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1993" t="n">
-        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1994">
@@ -31407,7 +31407,7 @@
       <c r="B1994" s="1" t="n"/>
       <c r="C1994" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D1994" t="n">
@@ -31422,59 +31422,55 @@
       <c r="B1995" s="1" t="n"/>
       <c r="C1995" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D1995" t="n">
         <v>0</v>
       </c>
       <c r="E1995" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1996">
       <c r="A1996" s="1" t="n"/>
-      <c r="B1996" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="B1996" s="1" t="n"/>
       <c r="C1996" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D1996" t="n">
         <v>0</v>
       </c>
       <c r="E1996" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="1997">
       <c r="A1997" s="1" t="n"/>
       <c r="B1997" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C1997" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D1997" t="n">
         <v>0</v>
       </c>
       <c r="E1997" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="1998">
       <c r="A1998" s="1" t="n"/>
       <c r="B1998" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C1998" s="1" t="inlineStr">
@@ -31486,19 +31482,19 @@
         <v>0</v>
       </c>
       <c r="E1998" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="1999">
       <c r="A1999" s="1" t="n"/>
       <c r="B1999" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C1999" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D1999" t="n">
@@ -31510,10 +31506,14 @@
     </row>
     <row r="2000">
       <c r="A2000" s="1" t="n"/>
-      <c r="B2000" s="1" t="n"/>
+      <c r="B2000" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="C2000" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2000" t="n">
@@ -31528,7 +31528,7 @@
       <c r="B2001" s="1" t="n"/>
       <c r="C2001" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2001" t="n">
@@ -31540,14 +31540,10 @@
     </row>
     <row r="2002">
       <c r="A2002" s="1" t="n"/>
-      <c r="B2002" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2002" s="1" t="n"/>
       <c r="C2002" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2002" t="n">
@@ -31559,10 +31555,14 @@
     </row>
     <row r="2003">
       <c r="A2003" s="1" t="n"/>
-      <c r="B2003" s="1" t="n"/>
+      <c r="B2003" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2003" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2003" t="n">
@@ -31577,7 +31577,7 @@
       <c r="B2004" s="1" t="n"/>
       <c r="C2004" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2004" t="n">
@@ -31592,7 +31592,7 @@
       <c r="B2005" s="1" t="n"/>
       <c r="C2005" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2005" t="n">
@@ -31607,7 +31607,7 @@
       <c r="B2006" s="1" t="n"/>
       <c r="C2006" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2006" t="n">
@@ -31619,14 +31619,10 @@
     </row>
     <row r="2007">
       <c r="A2007" s="1" t="n"/>
-      <c r="B2007" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="B2007" s="1" t="n"/>
       <c r="C2007" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2007" t="n">
@@ -31638,10 +31634,14 @@
     </row>
     <row r="2008">
       <c r="A2008" s="1" t="n"/>
-      <c r="B2008" s="1" t="n"/>
+      <c r="B2008" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2008" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2008" t="n">
@@ -31653,90 +31653,86 @@
     </row>
     <row r="2009">
       <c r="A2009" s="1" t="n"/>
-      <c r="B2009" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2009" s="1" t="n"/>
       <c r="C2009" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2009" t="n">
         <v>0</v>
       </c>
       <c r="E2009" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2010">
       <c r="A2010" s="1" t="n"/>
-      <c r="B2010" s="1" t="n"/>
+      <c r="B2010" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
       <c r="C2010" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2010" t="n">
         <v>0</v>
       </c>
       <c r="E2010" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2011">
       <c r="A2011" s="1" t="n"/>
-      <c r="B2011" s="1" t="inlineStr">
+      <c r="B2011" s="1" t="n"/>
+      <c r="C2011" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="D2011" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" s="1" t="n"/>
+      <c r="B2012" s="1" t="inlineStr">
         <is>
           <t>VERB</t>
         </is>
       </c>
-      <c r="C2011" s="1" t="inlineStr">
+      <c r="C2012" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="D2011" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2011" t="n">
+      <c r="D2012" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2012" t="n">
         <v>0.01817190623296384</v>
       </c>
     </row>
-    <row r="2012">
-      <c r="A2012" s="1" t="inlineStr">
+    <row r="2013">
+      <c r="A2013" s="1" t="inlineStr">
         <is>
           <t>ADP</t>
         </is>
       </c>
-      <c r="B2012" s="1" t="inlineStr">
+      <c r="B2013" s="1" t="inlineStr">
         <is>
           <t>&lt;EOS&gt;</t>
         </is>
       </c>
-      <c r="C2012" s="1" t="inlineStr">
+      <c r="C2013" s="1" t="inlineStr">
         <is>
           <t>&lt;EOS&gt;</t>
-        </is>
-      </c>
-      <c r="D2012" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2012" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2013">
-      <c r="A2013" s="1" t="n"/>
-      <c r="B2013" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
-      <c r="C2013" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
         </is>
       </c>
       <c r="D2013" t="n">
@@ -31750,46 +31746,46 @@
       <c r="A2014" s="1" t="n"/>
       <c r="B2014" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="C2014" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2014" t="n">
         <v>0</v>
       </c>
       <c r="E2014" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2015">
       <c r="A2015" s="1" t="n"/>
-      <c r="B2015" s="1" t="n"/>
+      <c r="B2015" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
       <c r="C2015" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2015" t="n">
         <v>0</v>
       </c>
       <c r="E2015" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2016">
       <c r="A2016" s="1" t="n"/>
-      <c r="B2016" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
+      <c r="B2016" s="1" t="n"/>
       <c r="C2016" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2016" t="n">
@@ -31801,10 +31797,14 @@
     </row>
     <row r="2017">
       <c r="A2017" s="1" t="n"/>
-      <c r="B2017" s="1" t="n"/>
+      <c r="B2017" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
       <c r="C2017" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2017" t="n">
@@ -31816,14 +31816,10 @@
     </row>
     <row r="2018">
       <c r="A2018" s="1" t="n"/>
-      <c r="B2018" s="1" t="inlineStr">
+      <c r="B2018" s="1" t="n"/>
+      <c r="C2018" s="1" t="inlineStr">
         <is>
           <t>CCONJ</t>
-        </is>
-      </c>
-      <c r="C2018" s="1" t="inlineStr">
-        <is>
-          <t>VERB</t>
         </is>
       </c>
       <c r="D2018" t="n">
@@ -31837,12 +31833,12 @@
       <c r="A2019" s="1" t="n"/>
       <c r="B2019" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2019" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2019" t="n">
@@ -31854,63 +31850,67 @@
     </row>
     <row r="2020">
       <c r="A2020" s="1" t="n"/>
-      <c r="B2020" s="1" t="n"/>
+      <c r="B2020" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="C2020" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2020" t="n">
         <v>0</v>
       </c>
       <c r="E2020" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2021">
       <c r="A2021" s="1" t="n"/>
-      <c r="B2021" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
+      <c r="B2021" s="1" t="n"/>
       <c r="C2021" s="1" t="inlineStr">
         <is>
-          <t>&lt;EOS&gt;</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2021" t="n">
         <v>0</v>
       </c>
       <c r="E2021" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2022">
       <c r="A2022" s="1" t="n"/>
       <c r="B2022" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2022" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>&lt;EOS&gt;</t>
         </is>
       </c>
       <c r="D2022" t="n">
         <v>0</v>
       </c>
       <c r="E2022" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2023">
       <c r="A2023" s="1" t="n"/>
-      <c r="B2023" s="1" t="n"/>
+      <c r="B2023" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2023" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2023" t="n">
@@ -31925,41 +31925,41 @@
       <c r="B2024" s="1" t="n"/>
       <c r="C2024" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2024" t="n">
         <v>0</v>
       </c>
       <c r="E2024" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2025">
       <c r="A2025" s="1" t="n"/>
-      <c r="B2025" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2025" s="1" t="n"/>
       <c r="C2025" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2025" t="n">
         <v>0</v>
       </c>
       <c r="E2025" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2026">
       <c r="A2026" s="1" t="n"/>
-      <c r="B2026" s="1" t="n"/>
+      <c r="B2026" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2026" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2026" t="n">
@@ -31971,33 +31971,29 @@
     </row>
     <row r="2027">
       <c r="A2027" s="1" t="n"/>
-      <c r="B2027" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2027" s="1" t="n"/>
       <c r="C2027" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2027" t="n">
         <v>0</v>
       </c>
       <c r="E2027" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2028">
       <c r="A2028" s="1" t="n"/>
       <c r="B2028" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="C2028" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2028" t="n">
@@ -32028,52 +32024,52 @@
     </row>
     <row r="2030">
       <c r="A2030" s="1" t="n"/>
-      <c r="B2030" s="1" t="inlineStr">
+      <c r="B2030" s="1" t="n"/>
+      <c r="C2030" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
+      <c r="D2030" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" s="1" t="n"/>
+      <c r="B2031" s="1" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C2030" s="1" t="inlineStr">
+      <c r="C2031" s="1" t="inlineStr">
         <is>
           <t>ADP</t>
         </is>
       </c>
-      <c r="D2030" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2030" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2031">
-      <c r="A2031" s="1" t="inlineStr">
+      <c r="D2031" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" s="1" t="inlineStr">
         <is>
           <t>ADV</t>
         </is>
       </c>
-      <c r="B2031" s="1" t="inlineStr">
+      <c r="B2032" s="1" t="inlineStr">
         <is>
           <t>ADJ</t>
         </is>
       </c>
-      <c r="C2031" s="1" t="inlineStr">
+      <c r="C2032" s="1" t="inlineStr">
         <is>
           <t>DET</t>
-        </is>
-      </c>
-      <c r="D2031" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2031" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2032">
-      <c r="A2032" s="1" t="n"/>
-      <c r="B2032" s="1" t="n"/>
-      <c r="C2032" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
         </is>
       </c>
       <c r="D2032" t="n">
@@ -32085,14 +32081,10 @@
     </row>
     <row r="2033">
       <c r="A2033" s="1" t="n"/>
-      <c r="B2033" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="B2033" s="1" t="n"/>
       <c r="C2033" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2033" t="n">
@@ -32106,31 +32098,31 @@
       <c r="A2034" s="1" t="n"/>
       <c r="B2034" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C2034" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2034" t="n">
         <v>0</v>
       </c>
       <c r="E2034" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2035">
       <c r="A2035" s="1" t="n"/>
       <c r="B2035" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C2035" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2035" t="n">
@@ -32142,29 +32134,29 @@
     </row>
     <row r="2036">
       <c r="A2036" s="1" t="n"/>
-      <c r="B2036" s="1" t="n"/>
+      <c r="B2036" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="C2036" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2036" t="n">
         <v>0</v>
       </c>
       <c r="E2036" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2037">
       <c r="A2037" s="1" t="n"/>
-      <c r="B2037" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
+      <c r="B2037" s="1" t="n"/>
       <c r="C2037" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2037" t="n">
@@ -32178,46 +32170,50 @@
       <c r="A2038" s="1" t="n"/>
       <c r="B2038" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2038" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2038" t="n">
         <v>0</v>
       </c>
       <c r="E2038" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2039">
       <c r="A2039" s="1" t="n"/>
       <c r="B2039" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="C2039" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2039" t="n">
         <v>0</v>
       </c>
       <c r="E2039" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2040">
       <c r="A2040" s="1" t="n"/>
-      <c r="B2040" s="1" t="n"/>
+      <c r="B2040" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2040" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2040" t="n">
@@ -32229,14 +32225,10 @@
     </row>
     <row r="2041">
       <c r="A2041" s="1" t="n"/>
-      <c r="B2041" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2041" s="1" t="n"/>
       <c r="C2041" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2041" t="n">
@@ -32250,54 +32242,54 @@
       <c r="A2042" s="1" t="n"/>
       <c r="B2042" s="1" t="inlineStr">
         <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="C2042" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
+      <c r="D2042" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" s="1" t="n"/>
+      <c r="B2043" s="1" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C2042" s="1" t="inlineStr">
+      <c r="C2043" s="1" t="inlineStr">
         <is>
           <t>PUNCT</t>
         </is>
       </c>
-      <c r="D2042" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2042" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2043">
-      <c r="A2043" s="1" t="inlineStr">
+      <c r="D2043" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" s="1" t="inlineStr">
         <is>
           <t>AUX</t>
         </is>
       </c>
-      <c r="B2043" s="1" t="inlineStr">
+      <c r="B2044" s="1" t="inlineStr">
         <is>
           <t>ADJ</t>
         </is>
       </c>
-      <c r="C2043" s="1" t="inlineStr">
+      <c r="C2044" s="1" t="inlineStr">
         <is>
           <t>DET</t>
-        </is>
-      </c>
-      <c r="D2043" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2043" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2044">
-      <c r="A2044" s="1" t="n"/>
-      <c r="B2044" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
-      <c r="C2044" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
         </is>
       </c>
       <c r="D2044" t="n">
@@ -32309,10 +32301,14 @@
     </row>
     <row r="2045">
       <c r="A2045" s="1" t="n"/>
-      <c r="B2045" s="1" t="n"/>
+      <c r="B2045" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
       <c r="C2045" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2045" t="n">
@@ -32324,48 +32320,48 @@
     </row>
     <row r="2046">
       <c r="A2046" s="1" t="n"/>
-      <c r="B2046" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
+      <c r="B2046" s="1" t="n"/>
       <c r="C2046" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2046" t="n">
         <v>0</v>
       </c>
       <c r="E2046" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2047">
       <c r="A2047" s="1" t="n"/>
       <c r="B2047" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2047" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2047" t="n">
         <v>0</v>
       </c>
       <c r="E2047" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2048">
       <c r="A2048" s="1" t="n"/>
-      <c r="B2048" s="1" t="n"/>
+      <c r="B2048" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2048" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2048" t="n">
@@ -32380,41 +32376,41 @@
       <c r="B2049" s="1" t="n"/>
       <c r="C2049" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2049" t="n">
         <v>0</v>
       </c>
       <c r="E2049" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2050">
       <c r="A2050" s="1" t="n"/>
-      <c r="B2050" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2050" s="1" t="n"/>
       <c r="C2050" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2050" t="n">
         <v>0</v>
       </c>
       <c r="E2050" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2051">
       <c r="A2051" s="1" t="n"/>
-      <c r="B2051" s="1" t="n"/>
+      <c r="B2051" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2051" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2051" t="n">
@@ -32429,14 +32425,14 @@
       <c r="B2052" s="1" t="n"/>
       <c r="C2052" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2052" t="n">
         <v>0</v>
       </c>
       <c r="E2052" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2053">
@@ -32444,26 +32440,22 @@
       <c r="B2053" s="1" t="n"/>
       <c r="C2053" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2053" t="n">
         <v>0</v>
       </c>
       <c r="E2053" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2054">
       <c r="A2054" s="1" t="n"/>
-      <c r="B2054" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2054" s="1" t="n"/>
       <c r="C2054" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2054" t="n">
@@ -32477,54 +32469,50 @@
       <c r="A2055" s="1" t="n"/>
       <c r="B2055" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="C2055" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2055" t="n">
         <v>0</v>
       </c>
       <c r="E2055" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2056">
       <c r="A2056" s="1" t="n"/>
       <c r="B2056" s="1" t="inlineStr">
         <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="C2056" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D2056" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2056" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057" s="1" t="n"/>
+      <c r="B2057" s="1" t="inlineStr">
+        <is>
           <t>X</t>
         </is>
       </c>
-      <c r="C2056" s="1" t="inlineStr">
+      <c r="C2057" s="1" t="inlineStr">
         <is>
           <t>PUNCT</t>
-        </is>
-      </c>
-      <c r="D2056" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2056" t="n">
-        <v>0.01817190623296384</v>
-      </c>
-    </row>
-    <row r="2057">
-      <c r="A2057" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
-      <c r="B2057" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
-      <c r="C2057" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
         </is>
       </c>
       <c r="D2057" t="n">
@@ -32535,11 +32523,19 @@
       </c>
     </row>
     <row r="2058">
-      <c r="A2058" s="1" t="n"/>
-      <c r="B2058" s="1" t="n"/>
+      <c r="A2058" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
+      <c r="B2058" s="1" t="inlineStr">
+        <is>
+          <t>ADJ</t>
+        </is>
+      </c>
       <c r="C2058" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2058" t="n">
@@ -32551,14 +32547,10 @@
     </row>
     <row r="2059">
       <c r="A2059" s="1" t="n"/>
-      <c r="B2059" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
+      <c r="B2059" s="1" t="n"/>
       <c r="C2059" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2059" t="n">
@@ -32570,10 +32562,14 @@
     </row>
     <row r="2060">
       <c r="A2060" s="1" t="n"/>
-      <c r="B2060" s="1" t="n"/>
+      <c r="B2060" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
       <c r="C2060" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2060" t="n">
@@ -32587,19 +32583,19 @@
       <c r="A2061" s="1" t="n"/>
       <c r="B2061" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="C2061" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2061" t="n">
         <v>0</v>
       </c>
       <c r="E2061" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2062">
@@ -32607,7 +32603,7 @@
       <c r="B2062" s="1" t="n"/>
       <c r="C2062" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2062" t="n">
@@ -32619,10 +32615,14 @@
     </row>
     <row r="2063">
       <c r="A2063" s="1" t="n"/>
-      <c r="B2063" s="1" t="n"/>
+      <c r="B2063" s="1" t="inlineStr">
+        <is>
+          <t>AUX</t>
+        </is>
+      </c>
       <c r="C2063" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2063" t="n">
@@ -32634,14 +32634,10 @@
     </row>
     <row r="2064">
       <c r="A2064" s="1" t="n"/>
-      <c r="B2064" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
+      <c r="B2064" s="1" t="n"/>
       <c r="C2064" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2064" t="n">
@@ -32653,14 +32649,10 @@
     </row>
     <row r="2065">
       <c r="A2065" s="1" t="n"/>
-      <c r="B2065" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2065" s="1" t="n"/>
       <c r="C2065" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2065" t="n">
@@ -32672,10 +32664,14 @@
     </row>
     <row r="2066">
       <c r="A2066" s="1" t="n"/>
-      <c r="B2066" s="1" t="n"/>
+      <c r="B2066" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2066" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2066" t="n">
@@ -32690,7 +32686,7 @@
       <c r="B2067" s="1" t="n"/>
       <c r="C2067" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2067" t="n">
@@ -32704,12 +32700,12 @@
       <c r="A2068" s="1" t="n"/>
       <c r="B2068" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2068" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2068" t="n">
@@ -32724,7 +32720,7 @@
       <c r="B2069" s="1" t="n"/>
       <c r="C2069" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2069" t="n">
@@ -32736,14 +32732,10 @@
     </row>
     <row r="2070">
       <c r="A2070" s="1" t="n"/>
-      <c r="B2070" s="1" t="inlineStr">
+      <c r="B2070" s="1" t="n"/>
+      <c r="C2070" s="1" t="inlineStr">
         <is>
           <t>PRON</t>
-        </is>
-      </c>
-      <c r="C2070" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2070" t="n">
@@ -32755,10 +32747,14 @@
     </row>
     <row r="2071">
       <c r="A2071" s="1" t="n"/>
-      <c r="B2071" s="1" t="n"/>
+      <c r="B2071" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2071" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2071" t="n">
@@ -32773,7 +32769,7 @@
       <c r="B2072" s="1" t="n"/>
       <c r="C2072" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2072" t="n">
@@ -32787,12 +32783,12 @@
       <c r="A2073" s="1" t="n"/>
       <c r="B2073" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="C2073" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2073" t="n">
@@ -32807,7 +32803,7 @@
       <c r="B2074" s="1" t="n"/>
       <c r="C2074" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2074" t="n">
@@ -32819,14 +32815,10 @@
     </row>
     <row r="2075">
       <c r="A2075" s="1" t="n"/>
-      <c r="B2075" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2075" s="1" t="n"/>
       <c r="C2075" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2075" t="n">
@@ -32840,12 +32832,12 @@
       <c r="A2076" s="1" t="n"/>
       <c r="B2076" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2076" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2076" t="n">
@@ -32860,7 +32852,7 @@
       <c r="B2077" s="1" t="n"/>
       <c r="C2077" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2077" t="n">
@@ -32872,10 +32864,14 @@
     </row>
     <row r="2078">
       <c r="A2078" s="1" t="n"/>
-      <c r="B2078" s="1" t="n"/>
+      <c r="B2078" s="1" t="inlineStr">
+        <is>
+          <t>PUNCT</t>
+        </is>
+      </c>
       <c r="C2078" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2078" t="n">
@@ -32887,10 +32883,14 @@
     </row>
     <row r="2079">
       <c r="A2079" s="1" t="n"/>
-      <c r="B2079" s="1" t="n"/>
+      <c r="B2079" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
       <c r="C2079" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2079" t="n">
@@ -32902,11 +32902,7 @@
     </row>
     <row r="2080">
       <c r="A2080" s="1" t="n"/>
-      <c r="B2080" s="1" t="inlineStr">
-        <is>
-          <t>VERB</t>
-        </is>
-      </c>
+      <c r="B2080" s="1" t="n"/>
       <c r="C2080" s="1" t="inlineStr">
         <is>
           <t>CCONJ</t>
@@ -32916,23 +32912,15 @@
         <v>0</v>
       </c>
       <c r="E2080" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2081">
-      <c r="A2081" s="1" t="inlineStr">
+      <c r="A2081" s="1" t="n"/>
+      <c r="B2081" s="1" t="n"/>
+      <c r="C2081" s="1" t="inlineStr">
         <is>
           <t>DET</t>
-        </is>
-      </c>
-      <c r="B2081" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
-      <c r="C2081" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
         </is>
       </c>
       <c r="D2081" t="n">
@@ -32944,52 +32932,52 @@
     </row>
     <row r="2082">
       <c r="A2082" s="1" t="n"/>
-      <c r="B2082" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="B2082" s="1" t="n"/>
       <c r="C2082" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2082" t="n">
         <v>0</v>
       </c>
       <c r="E2082" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2083">
       <c r="A2083" s="1" t="n"/>
       <c r="B2083" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="C2083" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2083" t="n">
         <v>0</v>
       </c>
       <c r="E2083" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2084">
-      <c r="A2084" s="1" t="n"/>
+      <c r="A2084" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="B2084" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="C2084" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2084" t="n">
@@ -33001,25 +32989,33 @@
     </row>
     <row r="2085">
       <c r="A2085" s="1" t="n"/>
-      <c r="B2085" s="1" t="n"/>
+      <c r="B2085" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
       <c r="C2085" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2085" t="n">
         <v>0</v>
       </c>
       <c r="E2085" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2086">
       <c r="A2086" s="1" t="n"/>
-      <c r="B2086" s="1" t="n"/>
+      <c r="B2086" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
       <c r="C2086" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2086" t="n">
@@ -33033,7 +33029,7 @@
       <c r="A2087" s="1" t="n"/>
       <c r="B2087" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C2087" s="1" t="inlineStr">
@@ -33045,7 +33041,7 @@
         <v>0</v>
       </c>
       <c r="E2087" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2088">
@@ -33053,7 +33049,7 @@
       <c r="B2088" s="1" t="n"/>
       <c r="C2088" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2088" t="n">
@@ -33068,7 +33064,7 @@
       <c r="B2089" s="1" t="n"/>
       <c r="C2089" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2089" t="n">
@@ -33080,14 +33076,10 @@
     </row>
     <row r="2090">
       <c r="A2090" s="1" t="n"/>
-      <c r="B2090" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2090" s="1" t="n"/>
       <c r="C2090" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2090" t="n">
@@ -33099,17 +33091,21 @@
     </row>
     <row r="2091">
       <c r="A2091" s="1" t="n"/>
-      <c r="B2091" s="1" t="n"/>
+      <c r="B2091" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2091" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2091" t="n">
         <v>0</v>
       </c>
       <c r="E2091" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2092">
@@ -33117,7 +33113,7 @@
       <c r="B2092" s="1" t="n"/>
       <c r="C2092" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2092" t="n">
@@ -33129,14 +33125,10 @@
     </row>
     <row r="2093">
       <c r="A2093" s="1" t="n"/>
-      <c r="B2093" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="B2093" s="1" t="n"/>
       <c r="C2093" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2093" t="n">
@@ -33150,12 +33142,12 @@
       <c r="A2094" s="1" t="n"/>
       <c r="B2094" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2094" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2094" t="n">
@@ -33170,7 +33162,7 @@
       <c r="B2095" s="1" t="n"/>
       <c r="C2095" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2095" t="n">
@@ -33182,14 +33174,10 @@
     </row>
     <row r="2096">
       <c r="A2096" s="1" t="n"/>
-      <c r="B2096" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2096" s="1" t="n"/>
       <c r="C2096" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2096" t="n">
@@ -33201,32 +33189,40 @@
     </row>
     <row r="2097">
       <c r="A2097" s="1" t="n"/>
-      <c r="B2097" s="1" t="n"/>
+      <c r="B2097" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2097" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2097" t="n">
         <v>0</v>
       </c>
       <c r="E2097" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2098">
       <c r="A2098" s="1" t="n"/>
-      <c r="B2098" s="1" t="n"/>
+      <c r="B2098" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="C2098" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2098" t="n">
         <v>0</v>
       </c>
       <c r="E2098" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2099">
@@ -33234,22 +33230,26 @@
       <c r="B2099" s="1" t="n"/>
       <c r="C2099" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2099" t="n">
         <v>0</v>
       </c>
       <c r="E2099" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2100">
       <c r="A2100" s="1" t="n"/>
-      <c r="B2100" s="1" t="n"/>
+      <c r="B2100" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2100" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2100" t="n">
@@ -33264,14 +33264,14 @@
       <c r="B2101" s="1" t="n"/>
       <c r="C2101" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2101" t="n">
         <v>0</v>
       </c>
       <c r="E2101" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2102">
@@ -33279,14 +33279,14 @@
       <c r="B2102" s="1" t="n"/>
       <c r="C2102" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2102" t="n">
         <v>0</v>
       </c>
       <c r="E2102" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2103">
@@ -33294,7 +33294,7 @@
       <c r="B2103" s="1" t="n"/>
       <c r="C2103" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2103" t="n">
@@ -33309,33 +33309,29 @@
       <c r="B2104" s="1" t="n"/>
       <c r="C2104" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2104" t="n">
         <v>0</v>
       </c>
       <c r="E2104" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2105">
       <c r="A2105" s="1" t="n"/>
-      <c r="B2105" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2105" s="1" t="n"/>
       <c r="C2105" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2105" t="n">
         <v>0</v>
       </c>
       <c r="E2105" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2106">
@@ -33343,37 +33339,29 @@
       <c r="B2106" s="1" t="n"/>
       <c r="C2106" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2106" t="n">
         <v>0</v>
       </c>
       <c r="E2106" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="2107">
-      <c r="A2107" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="B2107" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="A2107" s="1" t="n"/>
+      <c r="B2107" s="1" t="n"/>
       <c r="C2107" s="1" t="inlineStr">
         <is>
-          <t>&lt;EOS&gt;</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2107" t="n">
         <v>0</v>
       </c>
       <c r="E2107" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2108">
@@ -33381,26 +33369,26 @@
       <c r="B2108" s="1" t="n"/>
       <c r="C2108" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2108" t="n">
         <v>0</v>
       </c>
       <c r="E2108" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2109">
       <c r="A2109" s="1" t="n"/>
       <c r="B2109" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="C2109" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2109" t="n">
@@ -33412,36 +33400,40 @@
     </row>
     <row r="2110">
       <c r="A2110" s="1" t="n"/>
-      <c r="B2110" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
-        </is>
-      </c>
+      <c r="B2110" s="1" t="n"/>
       <c r="C2110" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2110" t="n">
         <v>0</v>
       </c>
       <c r="E2110" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2111">
-      <c r="A2111" s="1" t="n"/>
-      <c r="B2111" s="1" t="n"/>
+      <c r="A2111" s="1" t="inlineStr">
+        <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="B2111" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
       <c r="C2111" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>&lt;EOS&gt;</t>
         </is>
       </c>
       <c r="D2111" t="n">
         <v>0</v>
       </c>
       <c r="E2111" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2112">
@@ -33449,7 +33441,7 @@
       <c r="B2112" s="1" t="n"/>
       <c r="C2112" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2112" t="n">
@@ -33463,12 +33455,12 @@
       <c r="A2113" s="1" t="n"/>
       <c r="B2113" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="C2113" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2113" t="n">
@@ -33480,36 +33472,36 @@
     </row>
     <row r="2114">
       <c r="A2114" s="1" t="n"/>
-      <c r="B2114" s="1" t="n"/>
+      <c r="B2114" s="1" t="inlineStr">
+        <is>
+          <t>AUX</t>
+        </is>
+      </c>
       <c r="C2114" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2114" t="n">
         <v>0</v>
       </c>
       <c r="E2114" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2115">
       <c r="A2115" s="1" t="n"/>
-      <c r="B2115" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2115" s="1" t="n"/>
       <c r="C2115" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2115" t="n">
         <v>0</v>
       </c>
       <c r="E2115" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2116">
@@ -33517,33 +33509,33 @@
       <c r="B2116" s="1" t="n"/>
       <c r="C2116" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2116" t="n">
         <v>0</v>
       </c>
       <c r="E2116" t="n">
-        <v>0.1453752498637107</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2117">
       <c r="A2117" s="1" t="n"/>
       <c r="B2117" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2117" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2117" t="n">
         <v>0</v>
       </c>
       <c r="E2117" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2118">
@@ -33551,7 +33543,7 @@
       <c r="B2118" s="1" t="n"/>
       <c r="C2118" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2118" t="n">
@@ -33565,19 +33557,19 @@
       <c r="A2119" s="1" t="n"/>
       <c r="B2119" s="1" t="inlineStr">
         <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C2119" s="1" t="inlineStr">
+        <is>
           <t>PRON</t>
         </is>
       </c>
-      <c r="C2119" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
-        </is>
-      </c>
       <c r="D2119" t="n">
         <v>0</v>
       </c>
       <c r="E2119" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2120">
@@ -33585,26 +33577,26 @@
       <c r="B2120" s="1" t="n"/>
       <c r="C2120" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2120" t="n">
         <v>0</v>
       </c>
       <c r="E2120" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.1453752498637107</v>
       </c>
     </row>
     <row r="2121">
       <c r="A2121" s="1" t="n"/>
       <c r="B2121" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2121" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2121" t="n">
@@ -33616,14 +33608,10 @@
     </row>
     <row r="2122">
       <c r="A2122" s="1" t="n"/>
-      <c r="B2122" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2122" s="1" t="n"/>
       <c r="C2122" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2122" t="n">
@@ -33635,17 +33623,21 @@
     </row>
     <row r="2123">
       <c r="A2123" s="1" t="n"/>
-      <c r="B2123" s="1" t="n"/>
+      <c r="B2123" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="C2123" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2123" t="n">
         <v>0</v>
       </c>
       <c r="E2123" t="n">
-        <v>0.04542976558240959</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2124">
@@ -33653,44 +33645,40 @@
       <c r="B2124" s="1" t="n"/>
       <c r="C2124" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2124" t="n">
         <v>0</v>
       </c>
       <c r="E2124" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2125">
       <c r="A2125" s="1" t="n"/>
       <c r="B2125" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2125" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2125" t="n">
         <v>0</v>
       </c>
       <c r="E2125" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2126">
-      <c r="A2126" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="A2126" s="1" t="n"/>
       <c r="B2126" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2126" s="1" t="inlineStr">
@@ -33710,60 +33698,64 @@
       <c r="B2127" s="1" t="n"/>
       <c r="C2127" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2127" t="n">
         <v>0</v>
       </c>
       <c r="E2127" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.04542976558240959</v>
       </c>
     </row>
     <row r="2128">
       <c r="A2128" s="1" t="n"/>
-      <c r="B2128" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="B2128" s="1" t="n"/>
       <c r="C2128" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2128" t="n">
         <v>0</v>
       </c>
       <c r="E2128" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2129">
       <c r="A2129" s="1" t="n"/>
-      <c r="B2129" s="1" t="n"/>
+      <c r="B2129" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
       <c r="C2129" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2129" t="n">
         <v>0</v>
       </c>
       <c r="E2129" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2130">
-      <c r="A2130" s="1" t="n"/>
+      <c r="A2130" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="B2130" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="C2130" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2130" t="n">
@@ -33775,14 +33767,10 @@
     </row>
     <row r="2131">
       <c r="A2131" s="1" t="n"/>
-      <c r="B2131" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
-        </is>
-      </c>
+      <c r="B2131" s="1" t="n"/>
       <c r="C2131" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2131" t="n">
@@ -33796,65 +33784,65 @@
       <c r="A2132" s="1" t="n"/>
       <c r="B2132" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C2132" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2132" t="n">
         <v>0</v>
       </c>
       <c r="E2132" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2133">
       <c r="A2133" s="1" t="n"/>
-      <c r="B2133" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2133" s="1" t="n"/>
       <c r="C2133" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2133" t="n">
         <v>0</v>
       </c>
       <c r="E2133" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2134">
       <c r="A2134" s="1" t="n"/>
       <c r="B2134" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="C2134" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2134" t="n">
         <v>0</v>
       </c>
       <c r="E2134" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2135">
       <c r="A2135" s="1" t="n"/>
-      <c r="B2135" s="1" t="n"/>
+      <c r="B2135" s="1" t="inlineStr">
+        <is>
+          <t>AUX</t>
+        </is>
+      </c>
       <c r="C2135" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2135" t="n">
@@ -33866,43 +33854,47 @@
     </row>
     <row r="2136">
       <c r="A2136" s="1" t="n"/>
-      <c r="B2136" s="1" t="n"/>
+      <c r="B2136" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2136" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2136" t="n">
         <v>0</v>
       </c>
       <c r="E2136" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2137">
       <c r="A2137" s="1" t="n"/>
       <c r="B2137" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2137" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2137" t="n">
         <v>0</v>
       </c>
       <c r="E2137" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2138">
       <c r="A2138" s="1" t="n"/>
       <c r="B2138" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2138" s="1" t="inlineStr">
@@ -33914,19 +33906,15 @@
         <v>0</v>
       </c>
       <c r="E2138" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2139">
       <c r="A2139" s="1" t="n"/>
-      <c r="B2139" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
+      <c r="B2139" s="1" t="n"/>
       <c r="C2139" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2139" t="n">
@@ -33941,7 +33929,7 @@
       <c r="B2140" s="1" t="n"/>
       <c r="C2140" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2140" t="n">
@@ -33955,31 +33943,31 @@
       <c r="A2141" s="1" t="n"/>
       <c r="B2141" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="C2141" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2141" t="n">
         <v>0</v>
       </c>
       <c r="E2141" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2142">
       <c r="A2142" s="1" t="n"/>
       <c r="B2142" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2142" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2142" t="n">
@@ -33990,19 +33978,15 @@
       </c>
     </row>
     <row r="2143">
-      <c r="A2143" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="A2143" s="1" t="n"/>
       <c r="B2143" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="C2143" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2143" t="n">
@@ -34017,7 +34001,7 @@
       <c r="B2144" s="1" t="n"/>
       <c r="C2144" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2144" t="n">
@@ -34031,69 +34015,69 @@
       <c r="A2145" s="1" t="n"/>
       <c r="B2145" s="1" t="inlineStr">
         <is>
+          <t>VERB</t>
+        </is>
+      </c>
+      <c r="C2145" s="1" t="inlineStr">
+        <is>
           <t>ADP</t>
         </is>
       </c>
-      <c r="C2145" s="1" t="inlineStr">
-        <is>
-          <t>VERB</t>
-        </is>
-      </c>
       <c r="D2145" t="n">
         <v>0</v>
       </c>
       <c r="E2145" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2146">
       <c r="A2146" s="1" t="n"/>
       <c r="B2146" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C2146" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2146" t="n">
         <v>0</v>
       </c>
       <c r="E2146" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2147">
-      <c r="A2147" s="1" t="n"/>
+      <c r="A2147" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="B2147" s="1" t="inlineStr">
         <is>
+          <t>ADJ</t>
+        </is>
+      </c>
+      <c r="C2147" s="1" t="inlineStr">
+        <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="C2147" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
       <c r="D2147" t="n">
         <v>0</v>
       </c>
       <c r="E2147" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2148">
       <c r="A2148" s="1" t="n"/>
-      <c r="B2148" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="B2148" s="1" t="n"/>
       <c r="C2148" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2148" t="n">
@@ -34107,12 +34091,12 @@
       <c r="A2149" s="1" t="n"/>
       <c r="B2149" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C2149" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2149" t="n">
@@ -34124,7 +34108,11 @@
     </row>
     <row r="2150">
       <c r="A2150" s="1" t="n"/>
-      <c r="B2150" s="1" t="n"/>
+      <c r="B2150" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2150" s="1" t="inlineStr">
         <is>
           <t>NOUN</t>
@@ -34134,34 +34122,38 @@
         <v>0</v>
       </c>
       <c r="E2150" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2151">
       <c r="A2151" s="1" t="n"/>
       <c r="B2151" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2151" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2151" t="n">
         <v>0</v>
       </c>
       <c r="E2151" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2152">
       <c r="A2152" s="1" t="n"/>
-      <c r="B2152" s="1" t="n"/>
+      <c r="B2152" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2152" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2152" t="n">
@@ -34173,10 +34165,14 @@
     </row>
     <row r="2153">
       <c r="A2153" s="1" t="n"/>
-      <c r="B2153" s="1" t="n"/>
+      <c r="B2153" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2153" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2153" t="n">
@@ -34191,7 +34187,7 @@
       <c r="B2154" s="1" t="n"/>
       <c r="C2154" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2154" t="n">
@@ -34205,35 +34201,27 @@
       <c r="A2155" s="1" t="n"/>
       <c r="B2155" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2155" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2155" t="n">
         <v>0</v>
       </c>
       <c r="E2155" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2156">
-      <c r="A2156" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
-      <c r="B2156" s="1" t="inlineStr">
+      <c r="A2156" s="1" t="n"/>
+      <c r="B2156" s="1" t="n"/>
+      <c r="C2156" s="1" t="inlineStr">
         <is>
           <t>ADP</t>
-        </is>
-      </c>
-      <c r="C2156" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2156" t="n">
@@ -34245,33 +34233,25 @@
     </row>
     <row r="2157">
       <c r="A2157" s="1" t="n"/>
-      <c r="B2157" s="1" t="inlineStr">
+      <c r="B2157" s="1" t="n"/>
+      <c r="C2157" s="1" t="inlineStr">
         <is>
           <t>AUX</t>
         </is>
       </c>
-      <c r="C2157" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
       <c r="D2157" t="n">
         <v>0</v>
       </c>
       <c r="E2157" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2158">
       <c r="A2158" s="1" t="n"/>
-      <c r="B2158" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
+      <c r="B2158" s="1" t="n"/>
       <c r="C2158" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2158" t="n">
@@ -34285,27 +34265,35 @@
       <c r="A2159" s="1" t="n"/>
       <c r="B2159" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="C2159" s="1" t="inlineStr">
         <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="D2159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2159" t="n">
+        <v>0.02725785934944576</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
+      <c r="B2160" s="1" t="inlineStr">
+        <is>
           <t>ADP</t>
         </is>
       </c>
-      <c r="D2159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2159" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2160">
-      <c r="A2160" s="1" t="n"/>
-      <c r="B2160" s="1" t="n"/>
       <c r="C2160" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2160" t="n">
@@ -34319,31 +34307,31 @@
       <c r="A2161" s="1" t="n"/>
       <c r="B2161" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C2161" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2161" t="n">
         <v>0</v>
       </c>
       <c r="E2161" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2162">
       <c r="A2162" s="1" t="n"/>
       <c r="B2162" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2162" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2162" t="n">
@@ -34357,7 +34345,7 @@
       <c r="A2163" s="1" t="n"/>
       <c r="B2163" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2163" s="1" t="inlineStr">
@@ -34369,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="E2163" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2164">
@@ -34377,7 +34365,7 @@
       <c r="B2164" s="1" t="n"/>
       <c r="C2164" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2164" t="n">
@@ -34389,10 +34377,14 @@
     </row>
     <row r="2165">
       <c r="A2165" s="1" t="n"/>
-      <c r="B2165" s="1" t="n"/>
+      <c r="B2165" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2165" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2165" t="n">
@@ -34403,19 +34395,15 @@
       </c>
     </row>
     <row r="2166">
-      <c r="A2166" s="1" t="inlineStr">
+      <c r="A2166" s="1" t="n"/>
+      <c r="B2166" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
+      <c r="C2166" s="1" t="inlineStr">
         <is>
           <t>PROPN</t>
-        </is>
-      </c>
-      <c r="B2166" s="1" t="inlineStr">
-        <is>
-          <t>ADJ</t>
-        </is>
-      </c>
-      <c r="C2166" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
         </is>
       </c>
       <c r="D2166" t="n">
@@ -34427,10 +34415,14 @@
     </row>
     <row r="2167">
       <c r="A2167" s="1" t="n"/>
-      <c r="B2167" s="1" t="n"/>
+      <c r="B2167" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2167" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2167" t="n">
@@ -34445,7 +34437,7 @@
       <c r="B2168" s="1" t="n"/>
       <c r="C2168" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2168" t="n">
@@ -34460,22 +34452,30 @@
       <c r="B2169" s="1" t="n"/>
       <c r="C2169" s="1" t="inlineStr">
         <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="D2169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2169" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" s="1" t="inlineStr">
+        <is>
           <t>PROPN</t>
         </is>
       </c>
-      <c r="D2169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2169" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2170">
-      <c r="A2170" s="1" t="n"/>
-      <c r="B2170" s="1" t="n"/>
+      <c r="B2170" s="1" t="inlineStr">
+        <is>
+          <t>ADJ</t>
+        </is>
+      </c>
       <c r="C2170" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2170" t="n">
@@ -34487,14 +34487,10 @@
     </row>
     <row r="2171">
       <c r="A2171" s="1" t="n"/>
-      <c r="B2171" s="1" t="inlineStr">
-        <is>
-          <t>ADV</t>
-        </is>
-      </c>
+      <c r="B2171" s="1" t="n"/>
       <c r="C2171" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2171" t="n">
@@ -34509,7 +34505,7 @@
       <c r="B2172" s="1" t="n"/>
       <c r="C2172" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2172" t="n">
@@ -34524,7 +34520,7 @@
       <c r="B2173" s="1" t="n"/>
       <c r="C2173" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2173" t="n">
@@ -34539,7 +34535,7 @@
       <c r="B2174" s="1" t="n"/>
       <c r="C2174" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2174" t="n">
@@ -34553,19 +34549,19 @@
       <c r="A2175" s="1" t="n"/>
       <c r="B2175" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="C2175" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2175" t="n">
         <v>0</v>
       </c>
       <c r="E2175" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2176">
@@ -34573,7 +34569,7 @@
       <c r="B2176" s="1" t="n"/>
       <c r="C2176" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2176" t="n">
@@ -34588,14 +34584,14 @@
       <c r="B2177" s="1" t="n"/>
       <c r="C2177" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2177" t="n">
         <v>0</v>
       </c>
       <c r="E2177" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2178">
@@ -34610,15 +34606,19 @@
         <v>0</v>
       </c>
       <c r="E2178" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2179">
       <c r="A2179" s="1" t="n"/>
-      <c r="B2179" s="1" t="n"/>
+      <c r="B2179" s="1" t="inlineStr">
+        <is>
+          <t>AUX</t>
+        </is>
+      </c>
       <c r="C2179" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2179" t="n">
@@ -34630,14 +34630,10 @@
     </row>
     <row r="2180">
       <c r="A2180" s="1" t="n"/>
-      <c r="B2180" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
+      <c r="B2180" s="1" t="n"/>
       <c r="C2180" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2180" t="n">
@@ -34652,14 +34648,14 @@
       <c r="B2181" s="1" t="n"/>
       <c r="C2181" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2181" t="n">
         <v>0</v>
       </c>
       <c r="E2181" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2182">
@@ -34667,41 +34663,41 @@
       <c r="B2182" s="1" t="n"/>
       <c r="C2182" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2182" t="n">
         <v>0</v>
       </c>
       <c r="E2182" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2183">
       <c r="A2183" s="1" t="n"/>
-      <c r="B2183" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2183" s="1" t="n"/>
       <c r="C2183" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2183" t="n">
         <v>0</v>
       </c>
       <c r="E2183" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2184">
       <c r="A2184" s="1" t="n"/>
-      <c r="B2184" s="1" t="n"/>
+      <c r="B2184" s="1" t="inlineStr">
+        <is>
+          <t>CCONJ</t>
+        </is>
+      </c>
       <c r="C2184" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2184" t="n">
@@ -34716,7 +34712,7 @@
       <c r="B2185" s="1" t="n"/>
       <c r="C2185" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2185" t="n">
@@ -34731,7 +34727,7 @@
       <c r="B2186" s="1" t="n"/>
       <c r="C2186" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2186" t="n">
@@ -34745,12 +34741,12 @@
       <c r="A2187" s="1" t="n"/>
       <c r="B2187" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2187" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2187" t="n">
@@ -34765,7 +34761,7 @@
       <c r="B2188" s="1" t="n"/>
       <c r="C2188" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2188" t="n">
@@ -34777,11 +34773,7 @@
     </row>
     <row r="2189">
       <c r="A2189" s="1" t="n"/>
-      <c r="B2189" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2189" s="1" t="n"/>
       <c r="C2189" s="1" t="inlineStr">
         <is>
           <t>CCONJ</t>
@@ -34799,41 +34791,41 @@
       <c r="B2190" s="1" t="n"/>
       <c r="C2190" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2190" t="n">
         <v>0</v>
       </c>
       <c r="E2190" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2191">
       <c r="A2191" s="1" t="n"/>
-      <c r="B2191" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="B2191" s="1" t="n"/>
       <c r="C2191" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2191" t="n">
         <v>0</v>
       </c>
       <c r="E2191" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2192">
       <c r="A2192" s="1" t="n"/>
-      <c r="B2192" s="1" t="n"/>
+      <c r="B2192" s="1" t="inlineStr">
+        <is>
+          <t>NOUN</t>
+        </is>
+      </c>
       <c r="C2192" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2192" t="n">
@@ -34848,26 +34840,26 @@
       <c r="B2193" s="1" t="n"/>
       <c r="C2193" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2193" t="n">
         <v>0</v>
       </c>
       <c r="E2193" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2194">
       <c r="A2194" s="1" t="n"/>
       <c r="B2194" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2194" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2194" t="n">
@@ -34882,7 +34874,7 @@
       <c r="B2195" s="1" t="n"/>
       <c r="C2195" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2195" t="n">
@@ -34894,36 +34886,36 @@
     </row>
     <row r="2196">
       <c r="A2196" s="1" t="n"/>
-      <c r="B2196" s="1" t="n"/>
+      <c r="B2196" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2196" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2196" t="n">
         <v>0</v>
       </c>
       <c r="E2196" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2197">
       <c r="A2197" s="1" t="n"/>
-      <c r="B2197" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
+      <c r="B2197" s="1" t="n"/>
       <c r="C2197" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2197" t="n">
         <v>0</v>
       </c>
       <c r="E2197" t="n">
-        <v>0.02725785934944576</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2198">
@@ -34931,22 +34923,26 @@
       <c r="B2198" s="1" t="n"/>
       <c r="C2198" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2198" t="n">
         <v>0</v>
       </c>
       <c r="E2198" t="n">
-        <v>0.03634381246592767</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2199">
       <c r="A2199" s="1" t="n"/>
-      <c r="B2199" s="1" t="n"/>
+      <c r="B2199" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="C2199" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2199" t="n">
@@ -34958,14 +34954,10 @@
     </row>
     <row r="2200">
       <c r="A2200" s="1" t="n"/>
-      <c r="B2200" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="B2200" s="1" t="n"/>
       <c r="C2200" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2200" t="n">
@@ -34992,10 +34984,14 @@
     </row>
     <row r="2202">
       <c r="A2202" s="1" t="n"/>
-      <c r="B2202" s="1" t="n"/>
+      <c r="B2202" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
       <c r="C2202" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2202" t="n">
@@ -35007,34 +35003,22 @@
     </row>
     <row r="2203">
       <c r="A2203" s="1" t="n"/>
-      <c r="B2203" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="B2203" s="1" t="n"/>
       <c r="C2203" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2203" t="n">
         <v>0</v>
       </c>
       <c r="E2203" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.03634381246592767</v>
       </c>
     </row>
     <row r="2204">
-      <c r="A2204" s="1" t="inlineStr">
-        <is>
-          <t>PUNCT</t>
-        </is>
-      </c>
-      <c r="B2204" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
+      <c r="A2204" s="1" t="n"/>
+      <c r="B2204" s="1" t="n"/>
       <c r="C2204" s="1" t="inlineStr">
         <is>
           <t>SCONJ</t>
@@ -35051,31 +35035,27 @@
       <c r="A2205" s="1" t="n"/>
       <c r="B2205" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2205" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2205" t="n">
         <v>0</v>
       </c>
       <c r="E2205" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2206">
       <c r="A2206" s="1" t="n"/>
-      <c r="B2206" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2206" s="1" t="n"/>
       <c r="C2206" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>PUNCT</t>
         </is>
       </c>
       <c r="D2206" t="n">
@@ -35097,19 +35077,19 @@
         <v>0</v>
       </c>
       <c r="E2207" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.02725785934944576</v>
       </c>
     </row>
     <row r="2208">
       <c r="A2208" s="1" t="n"/>
       <c r="B2208" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>X</t>
         </is>
       </c>
       <c r="C2208" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2208" t="n">
@@ -35120,34 +35100,38 @@
       </c>
     </row>
     <row r="2209">
-      <c r="A2209" s="1" t="n"/>
+      <c r="A2209" s="1" t="inlineStr">
+        <is>
+          <t>PUNCT</t>
+        </is>
+      </c>
       <c r="B2209" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2209" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2209" t="n">
         <v>0</v>
       </c>
       <c r="E2209" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2210">
       <c r="A2210" s="1" t="n"/>
       <c r="B2210" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2210" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2210" t="n">
@@ -35162,7 +35146,7 @@
       <c r="B2211" s="1" t="n"/>
       <c r="C2211" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2211" t="n">
@@ -35174,105 +35158,101 @@
     </row>
     <row r="2212">
       <c r="A2212" s="1" t="n"/>
-      <c r="B2212" s="1" t="n"/>
+      <c r="B2212" s="1" t="inlineStr">
+        <is>
+          <t>PART</t>
+        </is>
+      </c>
       <c r="C2212" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2212" t="n">
         <v>0</v>
       </c>
       <c r="E2212" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2213">
       <c r="A2213" s="1" t="n"/>
       <c r="B2213" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="C2213" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2213" t="n">
         <v>0</v>
       </c>
       <c r="E2213" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2214">
-      <c r="A2214" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
+      <c r="A2214" s="1" t="n"/>
       <c r="B2214" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2214" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2214" t="n">
         <v>0</v>
       </c>
       <c r="E2214" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2215">
       <c r="A2215" s="1" t="n"/>
-      <c r="B2215" s="1" t="inlineStr">
-        <is>
-          <t>AUX</t>
-        </is>
-      </c>
+      <c r="B2215" s="1" t="n"/>
       <c r="C2215" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2215" t="n">
         <v>0</v>
       </c>
       <c r="E2215" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2216">
       <c r="A2216" s="1" t="n"/>
-      <c r="B2216" s="1" t="inlineStr">
-        <is>
-          <t>CCONJ</t>
-        </is>
-      </c>
+      <c r="B2216" s="1" t="n"/>
       <c r="C2216" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2216" t="n">
         <v>0</v>
       </c>
       <c r="E2216" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2217">
       <c r="A2217" s="1" t="n"/>
-      <c r="B2217" s="1" t="n"/>
+      <c r="B2217" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
       <c r="C2217" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2217" t="n">
@@ -35283,11 +35263,19 @@
       </c>
     </row>
     <row r="2218">
-      <c r="A2218" s="1" t="n"/>
-      <c r="B2218" s="1" t="n"/>
+      <c r="A2218" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="B2218" s="1" t="inlineStr">
+        <is>
+          <t>ADJ</t>
+        </is>
+      </c>
       <c r="C2218" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2218" t="n">
@@ -35301,31 +35289,31 @@
       <c r="A2219" s="1" t="n"/>
       <c r="B2219" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C2219" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2219" t="n">
         <v>0</v>
       </c>
       <c r="E2219" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2220">
       <c r="A2220" s="1" t="n"/>
       <c r="B2220" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="C2220" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>ADJ</t>
         </is>
       </c>
       <c r="D2220" t="n">
@@ -35337,14 +35325,10 @@
     </row>
     <row r="2221">
       <c r="A2221" s="1" t="n"/>
-      <c r="B2221" s="1" t="inlineStr">
-        <is>
-          <t>PART</t>
-        </is>
-      </c>
+      <c r="B2221" s="1" t="n"/>
       <c r="C2221" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2221" t="n">
@@ -35356,33 +35340,29 @@
     </row>
     <row r="2222">
       <c r="A2222" s="1" t="n"/>
-      <c r="B2222" s="1" t="inlineStr">
-        <is>
-          <t>PRON</t>
-        </is>
-      </c>
+      <c r="B2222" s="1" t="n"/>
       <c r="C2222" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2222" t="n">
         <v>0</v>
       </c>
       <c r="E2222" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2223">
       <c r="A2223" s="1" t="n"/>
       <c r="B2223" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2223" s="1" t="inlineStr">
         <is>
-          <t>ADJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2223" t="n">
@@ -35396,12 +35376,12 @@
       <c r="A2224" s="1" t="n"/>
       <c r="B2224" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2224" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2224" t="n">
@@ -35415,12 +35395,12 @@
       <c r="A2225" s="1" t="n"/>
       <c r="B2225" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="C2225" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>CCONJ</t>
         </is>
       </c>
       <c r="D2225" t="n">
@@ -35432,10 +35412,14 @@
     </row>
     <row r="2226">
       <c r="A2226" s="1" t="n"/>
-      <c r="B2226" s="1" t="n"/>
+      <c r="B2226" s="1" t="inlineStr">
+        <is>
+          <t>PRON</t>
+        </is>
+      </c>
       <c r="C2226" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2226" t="n">
@@ -35447,14 +35431,10 @@
     </row>
     <row r="2227">
       <c r="A2227" s="1" t="n"/>
-      <c r="B2227" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="B2227" s="1" t="n"/>
       <c r="C2227" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2227" t="n">
@@ -35465,38 +35445,34 @@
       </c>
     </row>
     <row r="2228">
-      <c r="A2228" s="1" t="inlineStr">
-        <is>
-          <t>VERB</t>
-        </is>
-      </c>
+      <c r="A2228" s="1" t="n"/>
       <c r="B2228" s="1" t="inlineStr">
         <is>
+          <t>PROPN</t>
+        </is>
+      </c>
+      <c r="C2228" s="1" t="inlineStr">
+        <is>
           <t>ADJ</t>
         </is>
       </c>
-      <c r="C2228" s="1" t="inlineStr">
-        <is>
-          <t>PROPN</t>
-        </is>
-      </c>
       <c r="D2228" t="n">
         <v>0</v>
       </c>
       <c r="E2228" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2229">
       <c r="A2229" s="1" t="n"/>
       <c r="B2229" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2229" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="D2229" t="n">
@@ -35510,12 +35486,12 @@
       <c r="A2230" s="1" t="n"/>
       <c r="B2230" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="C2230" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2230" t="n">
@@ -35527,14 +35503,10 @@
     </row>
     <row r="2231">
       <c r="A2231" s="1" t="n"/>
-      <c r="B2231" s="1" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
+      <c r="B2231" s="1" t="n"/>
       <c r="C2231" s="1" t="inlineStr">
         <is>
-          <t>PART</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2231" t="n">
@@ -35546,41 +35518,53 @@
     </row>
     <row r="2232">
       <c r="A2232" s="1" t="n"/>
-      <c r="B2232" s="1" t="n"/>
+      <c r="B2232" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="C2232" s="1" t="inlineStr">
         <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="D2232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
+      <c r="B2233" s="1" t="inlineStr">
+        <is>
+          <t>ADJ</t>
+        </is>
+      </c>
+      <c r="C2233" s="1" t="inlineStr">
+        <is>
           <t>PROPN</t>
         </is>
       </c>
-      <c r="D2232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2232" t="n">
-        <v>0.009085953116481919</v>
-      </c>
-    </row>
-    <row r="2233">
-      <c r="A2233" s="1" t="n"/>
-      <c r="B2233" s="1" t="inlineStr">
-        <is>
-          <t>NOUN</t>
-        </is>
-      </c>
-      <c r="C2233" s="1" t="inlineStr">
-        <is>
-          <t>SCONJ</t>
-        </is>
-      </c>
       <c r="D2233" t="n">
         <v>0</v>
       </c>
       <c r="E2233" t="n">
-        <v>0.05451571869889151</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2234">
       <c r="A2234" s="1" t="n"/>
-      <c r="B2234" s="1" t="n"/>
+      <c r="B2234" s="1" t="inlineStr">
+        <is>
+          <t>ADV</t>
+        </is>
+      </c>
       <c r="C2234" s="1" t="inlineStr">
         <is>
           <t>X</t>
@@ -35590,19 +35574,19 @@
         <v>0</v>
       </c>
       <c r="E2234" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2235">
       <c r="A2235" s="1" t="n"/>
       <c r="B2235" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="C2235" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2235" t="n">
@@ -35614,10 +35598,14 @@
     </row>
     <row r="2236">
       <c r="A2236" s="1" t="n"/>
-      <c r="B2236" s="1" t="n"/>
+      <c r="B2236" s="1" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
       <c r="C2236" s="1" t="inlineStr">
         <is>
-          <t>ADV</t>
+          <t>PART</t>
         </is>
       </c>
       <c r="D2236" t="n">
@@ -35632,7 +35620,7 @@
       <c r="B2237" s="1" t="n"/>
       <c r="C2237" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="D2237" t="n">
@@ -35646,19 +35634,19 @@
       <c r="A2238" s="1" t="n"/>
       <c r="B2238" s="1" t="inlineStr">
         <is>
-          <t>PROPN</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2238" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2238" t="n">
         <v>0</v>
       </c>
       <c r="E2238" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.05451571869889151</v>
       </c>
     </row>
     <row r="2239">
@@ -35666,26 +35654,26 @@
       <c r="B2239" s="1" t="n"/>
       <c r="C2239" s="1" t="inlineStr">
         <is>
-          <t>PRON</t>
+          <t>X</t>
         </is>
       </c>
       <c r="D2239" t="n">
         <v>0</v>
       </c>
       <c r="E2239" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2240">
       <c r="A2240" s="1" t="n"/>
       <c r="B2240" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="C2240" s="1" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="D2240" t="n">
@@ -35700,7 +35688,7 @@
       <c r="B2241" s="1" t="n"/>
       <c r="C2241" s="1" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>ADV</t>
         </is>
       </c>
       <c r="D2241" t="n">
@@ -35715,7 +35703,7 @@
       <c r="B2242" s="1" t="n"/>
       <c r="C2242" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2242" t="n">
@@ -35729,12 +35717,12 @@
       <c r="A2243" s="1" t="n"/>
       <c r="B2243" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PROPN</t>
         </is>
       </c>
       <c r="C2243" s="1" t="inlineStr">
         <is>
-          <t>AUX</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2243" t="n">
@@ -35749,25 +35737,21 @@
       <c r="B2244" s="1" t="n"/>
       <c r="C2244" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>PRON</t>
         </is>
       </c>
       <c r="D2244" t="n">
         <v>0</v>
       </c>
       <c r="E2244" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2245">
-      <c r="A2245" s="1" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="A2245" s="1" t="n"/>
       <c r="B2245" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="C2245" s="1" t="inlineStr">
@@ -35779,7 +35763,7 @@
         <v>0</v>
       </c>
       <c r="E2245" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2246">
@@ -35787,7 +35771,7 @@
       <c r="B2246" s="1" t="n"/>
       <c r="C2246" s="1" t="inlineStr">
         <is>
-          <t>VERB</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="D2246" t="n">
@@ -35799,14 +35783,10 @@
     </row>
     <row r="2247">
       <c r="A2247" s="1" t="n"/>
-      <c r="B2247" s="1" t="inlineStr">
-        <is>
-          <t>NUM</t>
-        </is>
-      </c>
+      <c r="B2247" s="1" t="n"/>
       <c r="C2247" s="1" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>SCONJ</t>
         </is>
       </c>
       <c r="D2247" t="n">
@@ -35820,12 +35800,12 @@
       <c r="A2248" s="1" t="n"/>
       <c r="B2248" s="1" t="inlineStr">
         <is>
-          <t>PUNCT</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="C2248" s="1" t="inlineStr">
         <is>
-          <t>SCONJ</t>
+          <t>AUX</t>
         </is>
       </c>
       <c r="D2248" t="n">
@@ -35837,40 +35817,40 @@
     </row>
     <row r="2249">
       <c r="A2249" s="1" t="n"/>
-      <c r="B2249" s="1" t="inlineStr">
+      <c r="B2249" s="1" t="n"/>
+      <c r="C2249" s="1" t="inlineStr">
         <is>
           <t>VERB</t>
         </is>
       </c>
-      <c r="C2249" s="1" t="inlineStr">
-        <is>
-          <t>ADP</t>
-        </is>
-      </c>
       <c r="D2249" t="n">
         <v>0</v>
       </c>
       <c r="E2249" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2250">
-      <c r="A2250" s="1" t="n"/>
+      <c r="A2250" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="B2250" s="1" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>NOUN</t>
         </is>
       </c>
       <c r="C2250" s="1" t="inlineStr">
         <is>
-          <t>CCONJ</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="D2250" t="n">
         <v>0</v>
       </c>
       <c r="E2250" t="n">
-        <v>0.009085953116481919</v>
+        <v>0.01817190623296384</v>
       </c>
     </row>
     <row r="2251">
@@ -35878,33 +35858,128 @@
       <c r="B2251" s="1" t="n"/>
       <c r="C2251" s="1" t="inlineStr">
         <is>
-          <t>NOUN</t>
+          <t>VERB</t>
         </is>
       </c>
       <c r="D2251" t="n">
         <v>0</v>
       </c>
       <c r="E2251" t="n">
-        <v>0.01817190623296384</v>
+        <v>0.009085953116481919</v>
       </c>
     </row>
     <row r="2252">
       <c r="A2252" s="1" t="n"/>
-      <c r="B2252" s="1" t="n"/>
+      <c r="B2252" s="1" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
       <c r="C2252" s="1" t="inlineStr">
         <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="D2252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253" s="1" t="n"/>
+      <c r="B2253" s="1" t="inlineStr">
+        <is>
           <t>PROPN</t>
         </is>
       </c>
-      <c r="D2252" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2252" t="n">
+      <c r="C2253" s="1" t="inlineStr">
+        <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="D2253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254" s="1" t="n"/>
+      <c r="B2254" s="1" t="inlineStr">
+        <is>
+          <t>PUNCT</t>
+        </is>
+      </c>
+      <c r="C2254" s="1" t="inlineStr">
+        <is>
+          <t>SCONJ</t>
+        </is>
+      </c>
+      <c r="D2254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255" s="1" t="n"/>
+      <c r="B2255" s="1" t="inlineStr">
+        <is>
+          <t>VERB</t>
+        </is>
+      </c>
+      <c r="C2255" s="1" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="D2255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256" s="1" t="n"/>
+      <c r="B2256" s="1" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C2256" s="1" t="inlineStr">
+        <is>
+          <t>NOUN</t>
+        </is>
+      </c>
+      <c r="D2256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.009085953116481919</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257" s="1" t="n"/>
+      <c r="B2257" s="1" t="n"/>
+      <c r="C2257" s="1" t="inlineStr">
+        <is>
+          <t>PROPN</t>
+        </is>
+      </c>
+      <c r="D2257" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2257" t="n">
         <v>0.009085953116481919</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="319">
+  <mergeCells count="323">
     <mergeCell ref="A2:A185"/>
     <mergeCell ref="A186:A326"/>
     <mergeCell ref="A327:A423"/>
@@ -35923,22 +35998,22 @@
     <mergeCell ref="A1783:A1786"/>
     <mergeCell ref="A1787:A1937"/>
     <mergeCell ref="A1938:A1985"/>
-    <mergeCell ref="A1986:A1991"/>
-    <mergeCell ref="A1992:A2011"/>
-    <mergeCell ref="A2012:A2030"/>
-    <mergeCell ref="A2031:A2042"/>
-    <mergeCell ref="A2043:A2056"/>
-    <mergeCell ref="A2057:A2080"/>
-    <mergeCell ref="A2081:A2106"/>
-    <mergeCell ref="A2107:A2125"/>
-    <mergeCell ref="A2126:A2142"/>
-    <mergeCell ref="A2143:A2155"/>
-    <mergeCell ref="A2156:A2165"/>
-    <mergeCell ref="A2166:A2203"/>
-    <mergeCell ref="A2204:A2213"/>
-    <mergeCell ref="A2214:A2227"/>
-    <mergeCell ref="A2228:A2244"/>
-    <mergeCell ref="A2245:A2252"/>
+    <mergeCell ref="A1986:A1992"/>
+    <mergeCell ref="A1993:A2012"/>
+    <mergeCell ref="A2013:A2031"/>
+    <mergeCell ref="A2032:A2043"/>
+    <mergeCell ref="A2044:A2057"/>
+    <mergeCell ref="A2058:A2083"/>
+    <mergeCell ref="A2084:A2110"/>
+    <mergeCell ref="A2111:A2129"/>
+    <mergeCell ref="A2130:A2146"/>
+    <mergeCell ref="A2147:A2159"/>
+    <mergeCell ref="A2160:A2169"/>
+    <mergeCell ref="A2170:A2208"/>
+    <mergeCell ref="A2209:A2217"/>
+    <mergeCell ref="A2218:A2232"/>
+    <mergeCell ref="A2233:A2249"/>
+    <mergeCell ref="A2250:A2257"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B29"/>
     <mergeCell ref="B30:B38"/>
@@ -36155,75 +36230,79 @@
     <mergeCell ref="B1978:B1981"/>
     <mergeCell ref="B1982:B1985"/>
     <mergeCell ref="B1989:B1990"/>
-    <mergeCell ref="B1992:B1995"/>
-    <mergeCell ref="B1999:B2001"/>
-    <mergeCell ref="B2002:B2006"/>
-    <mergeCell ref="B2007:B2008"/>
-    <mergeCell ref="B2009:B2010"/>
-    <mergeCell ref="B2014:B2015"/>
-    <mergeCell ref="B2016:B2017"/>
-    <mergeCell ref="B2019:B2020"/>
-    <mergeCell ref="B2022:B2024"/>
-    <mergeCell ref="B2025:B2026"/>
-    <mergeCell ref="B2031:B2032"/>
-    <mergeCell ref="B2035:B2036"/>
-    <mergeCell ref="B2039:B2040"/>
-    <mergeCell ref="B2044:B2045"/>
-    <mergeCell ref="B2047:B2049"/>
-    <mergeCell ref="B2050:B2053"/>
-    <mergeCell ref="B2057:B2058"/>
-    <mergeCell ref="B2059:B2060"/>
-    <mergeCell ref="B2061:B2063"/>
-    <mergeCell ref="B2065:B2067"/>
-    <mergeCell ref="B2068:B2069"/>
-    <mergeCell ref="B2070:B2072"/>
-    <mergeCell ref="B2073:B2074"/>
-    <mergeCell ref="B2076:B2079"/>
-    <mergeCell ref="B2084:B2086"/>
-    <mergeCell ref="B2087:B2089"/>
-    <mergeCell ref="B2090:B2092"/>
-    <mergeCell ref="B2094:B2095"/>
-    <mergeCell ref="B2096:B2104"/>
-    <mergeCell ref="B2105:B2106"/>
-    <mergeCell ref="B2107:B2108"/>
-    <mergeCell ref="B2110:B2112"/>
-    <mergeCell ref="B2113:B2114"/>
-    <mergeCell ref="B2115:B2116"/>
+    <mergeCell ref="B1991:B1992"/>
+    <mergeCell ref="B1993:B1996"/>
+    <mergeCell ref="B2000:B2002"/>
+    <mergeCell ref="B2003:B2007"/>
+    <mergeCell ref="B2008:B2009"/>
+    <mergeCell ref="B2010:B2011"/>
+    <mergeCell ref="B2015:B2016"/>
+    <mergeCell ref="B2017:B2018"/>
+    <mergeCell ref="B2020:B2021"/>
+    <mergeCell ref="B2023:B2025"/>
+    <mergeCell ref="B2026:B2027"/>
+    <mergeCell ref="B2029:B2030"/>
+    <mergeCell ref="B2032:B2033"/>
+    <mergeCell ref="B2036:B2037"/>
+    <mergeCell ref="B2040:B2041"/>
+    <mergeCell ref="B2045:B2046"/>
+    <mergeCell ref="B2048:B2050"/>
+    <mergeCell ref="B2051:B2054"/>
+    <mergeCell ref="B2058:B2059"/>
+    <mergeCell ref="B2061:B2062"/>
+    <mergeCell ref="B2063:B2065"/>
+    <mergeCell ref="B2066:B2067"/>
+    <mergeCell ref="B2068:B2070"/>
+    <mergeCell ref="B2071:B2072"/>
+    <mergeCell ref="B2073:B2075"/>
+    <mergeCell ref="B2076:B2077"/>
+    <mergeCell ref="B2079:B2082"/>
+    <mergeCell ref="B2087:B2090"/>
+    <mergeCell ref="B2091:B2093"/>
+    <mergeCell ref="B2094:B2096"/>
+    <mergeCell ref="B2098:B2099"/>
+    <mergeCell ref="B2100:B2108"/>
+    <mergeCell ref="B2109:B2110"/>
+    <mergeCell ref="B2111:B2112"/>
+    <mergeCell ref="B2114:B2116"/>
     <mergeCell ref="B2117:B2118"/>
     <mergeCell ref="B2119:B2120"/>
-    <mergeCell ref="B2122:B2124"/>
-    <mergeCell ref="B2126:B2127"/>
-    <mergeCell ref="B2128:B2129"/>
-    <mergeCell ref="B2134:B2136"/>
-    <mergeCell ref="B2139:B2140"/>
+    <mergeCell ref="B2121:B2122"/>
+    <mergeCell ref="B2123:B2124"/>
+    <mergeCell ref="B2126:B2128"/>
+    <mergeCell ref="B2130:B2131"/>
+    <mergeCell ref="B2132:B2133"/>
+    <mergeCell ref="B2138:B2140"/>
     <mergeCell ref="B2143:B2144"/>
-    <mergeCell ref="B2149:B2150"/>
-    <mergeCell ref="B2151:B2154"/>
-    <mergeCell ref="B2159:B2160"/>
-    <mergeCell ref="B2163:B2165"/>
-    <mergeCell ref="B2166:B2170"/>
-    <mergeCell ref="B2171:B2174"/>
-    <mergeCell ref="B2175:B2179"/>
-    <mergeCell ref="B2180:B2182"/>
-    <mergeCell ref="B2183:B2186"/>
-    <mergeCell ref="B2187:B2188"/>
-    <mergeCell ref="B2189:B2190"/>
-    <mergeCell ref="B2191:B2193"/>
-    <mergeCell ref="B2194:B2196"/>
-    <mergeCell ref="B2197:B2199"/>
-    <mergeCell ref="B2200:B2202"/>
-    <mergeCell ref="B2206:B2207"/>
-    <mergeCell ref="B2210:B2212"/>
-    <mergeCell ref="B2216:B2218"/>
-    <mergeCell ref="B2225:B2226"/>
-    <mergeCell ref="B2231:B2232"/>
-    <mergeCell ref="B2233:B2234"/>
-    <mergeCell ref="B2235:B2237"/>
+    <mergeCell ref="B2147:B2148"/>
+    <mergeCell ref="B2153:B2154"/>
+    <mergeCell ref="B2155:B2158"/>
+    <mergeCell ref="B2163:B2164"/>
+    <mergeCell ref="B2167:B2169"/>
+    <mergeCell ref="B2170:B2174"/>
+    <mergeCell ref="B2175:B2178"/>
+    <mergeCell ref="B2179:B2183"/>
+    <mergeCell ref="B2184:B2186"/>
+    <mergeCell ref="B2187:B2191"/>
+    <mergeCell ref="B2192:B2193"/>
+    <mergeCell ref="B2194:B2195"/>
+    <mergeCell ref="B2196:B2198"/>
+    <mergeCell ref="B2199:B2201"/>
+    <mergeCell ref="B2202:B2204"/>
+    <mergeCell ref="B2205:B2207"/>
+    <mergeCell ref="B2210:B2211"/>
+    <mergeCell ref="B2214:B2216"/>
+    <mergeCell ref="B2220:B2222"/>
+    <mergeCell ref="B2226:B2227"/>
+    <mergeCell ref="B2230:B2231"/>
+    <mergeCell ref="B2236:B2237"/>
     <mergeCell ref="B2238:B2239"/>
     <mergeCell ref="B2240:B2242"/>
     <mergeCell ref="B2243:B2244"/>
-    <mergeCell ref="B2245:B2246"/>
-    <mergeCell ref="B2250:B2252"/>
+    <mergeCell ref="B2245:B2247"/>
+    <mergeCell ref="B2248:B2249"/>
+    <mergeCell ref="B2250:B2251"/>
+    <mergeCell ref="B2256:B2257"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
